--- a/Post (na) Scriptie - Experiment resultaten.xlsx
+++ b/Post (na) Scriptie - Experiment resultaten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-150" yWindow="-300" windowWidth="29100" windowHeight="13275"/>
+    <workbookView xWindow="-150" yWindow="-300" windowWidth="29100" windowHeight="13275" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fitnesses &amp; Outputs" sheetId="1" r:id="rId1"/>
@@ -8147,8 +8147,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="141057408"/>
-        <c:axId val="141080064"/>
+        <c:axId val="128667648"/>
+        <c:axId val="128669568"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11010,11 +11010,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="141232000"/>
-        <c:axId val="141081984"/>
+        <c:axId val="129064960"/>
+        <c:axId val="128689280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="141057408"/>
+        <c:axId val="128667648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11054,7 +11054,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141080064"/>
+        <c:crossAx val="128669568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11064,7 +11064,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141080064"/>
+        <c:axId val="128669568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11104,12 +11104,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141057408"/>
+        <c:crossAx val="128667648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141081984"/>
+        <c:axId val="128689280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11150,7 +11150,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141232000"/>
+        <c:crossAx val="129064960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -11171,7 +11171,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:catAx>
-        <c:axId val="141232000"/>
+        <c:axId val="129064960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11181,7 +11181,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141081984"/>
+        <c:crossAx val="128689280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12790,6 +12790,21 @@
                 <c:pt idx="96">
                   <c:v>0.2345894</c:v>
                 </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.2345894</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.2345894</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.2345894</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.2345894</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.2345894</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13118,6 +13133,21 @@
                 <c:pt idx="96">
                   <c:v>0.22621369999999999</c:v>
                 </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.22535079999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.23140230000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.2306753</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.22336249999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.2241168</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13133,8 +13163,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="141276288"/>
-        <c:axId val="141278208"/>
+        <c:axId val="133042560"/>
+        <c:axId val="133044864"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -13868,6 +13898,21 @@
                 <c:pt idx="96">
                   <c:v>65554000</c:v>
                 </c:pt>
+                <c:pt idx="97">
+                  <c:v>65554000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>65554000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>65554000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>65554000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>65554000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14374,11 +14419,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="141426048"/>
-        <c:axId val="141423744"/>
+        <c:axId val="135780992"/>
+        <c:axId val="135778304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="141276288"/>
+        <c:axId val="133042560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14418,7 +14463,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141278208"/>
+        <c:crossAx val="133044864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14428,7 +14473,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141278208"/>
+        <c:axId val="133044864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14468,12 +14513,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141276288"/>
+        <c:crossAx val="133042560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141423744"/>
+        <c:axId val="135778304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14514,7 +14559,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141426048"/>
+        <c:crossAx val="135780992"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -14525,7 +14570,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:catAx>
-        <c:axId val="141426048"/>
+        <c:axId val="135780992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14535,7 +14580,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141423744"/>
+        <c:crossAx val="135778304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -26506,8 +26551,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="164079104"/>
-        <c:axId val="164081024"/>
+        <c:axId val="97727232"/>
+        <c:axId val="97729152"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -26568,11 +26613,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="164106240"/>
-        <c:axId val="164087680"/>
+        <c:axId val="97733632"/>
+        <c:axId val="97731712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="164079104"/>
+        <c:axId val="97727232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26612,7 +26657,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164081024"/>
+        <c:crossAx val="97729152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -26622,7 +26667,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164081024"/>
+        <c:axId val="97729152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26662,7 +26707,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164079104"/>
+        <c:crossAx val="97727232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -26688,7 +26733,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164087680"/>
+        <c:axId val="97731712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.29577009361005"/>
@@ -26731,14 +26776,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164106240"/>
+        <c:crossAx val="97733632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
         <c:minorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="164106240"/>
+        <c:axId val="97733632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26747,7 +26792,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164087680"/>
+        <c:crossAx val="97731712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -29650,6 +29695,21 @@
                 <c:pt idx="96">
                   <c:v>3097000</c:v>
                 </c:pt>
+                <c:pt idx="97">
+                  <c:v>3097000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3097000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3097000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3097000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3097000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -29976,6 +30036,21 @@
                 <c:pt idx="96">
                   <c:v>2100000</c:v>
                 </c:pt>
+                <c:pt idx="97">
+                  <c:v>2100000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2100000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2100000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2100000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2100000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -30302,6 +30377,21 @@
                 <c:pt idx="96">
                   <c:v>850000</c:v>
                 </c:pt>
+                <c:pt idx="97">
+                  <c:v>850000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>850000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>850000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>850000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>850000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -30317,8 +30407,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="164165120"/>
-        <c:axId val="164167040"/>
+        <c:axId val="97780480"/>
+        <c:axId val="97782400"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -30379,11 +30469,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="164188160"/>
-        <c:axId val="164185984"/>
+        <c:axId val="97786880"/>
+        <c:axId val="97784960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="164165120"/>
+        <c:axId val="97780480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30423,7 +30513,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164167040"/>
+        <c:crossAx val="97782400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -30433,7 +30523,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164167040"/>
+        <c:axId val="97782400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30473,7 +30563,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164165120"/>
+        <c:crossAx val="97780480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -30499,7 +30589,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164185984"/>
+        <c:axId val="97784960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.1323861684980878"/>
@@ -30542,14 +30632,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164188160"/>
+        <c:crossAx val="97786880"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
         <c:minorUnit val="0.25"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="164188160"/>
+        <c:axId val="97786880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30558,7 +30648,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164185984"/>
+        <c:crossAx val="97784960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -42516,8 +42606,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97736960"/>
-        <c:axId val="97743232"/>
+        <c:axId val="97825920"/>
+        <c:axId val="97827840"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -42578,11 +42668,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97751808"/>
-        <c:axId val="97745536"/>
+        <c:axId val="97832320"/>
+        <c:axId val="97830400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97736960"/>
+        <c:axId val="97825920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -42621,7 +42711,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97743232"/>
+        <c:crossAx val="97827840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -42631,7 +42721,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97743232"/>
+        <c:axId val="97827840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -42670,7 +42760,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97736960"/>
+        <c:crossAx val="97825920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -42695,7 +42785,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97745536"/>
+        <c:axId val="97830400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.55098482246641212"/>
@@ -42736,14 +42826,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97751808"/>
+        <c:crossAx val="97832320"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="97751808"/>
+        <c:axId val="97832320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -42752,7 +42842,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97745536"/>
+        <c:crossAx val="97830400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -44668,8 +44758,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97779712"/>
-        <c:axId val="97781632"/>
+        <c:axId val="97852032"/>
+        <c:axId val="97858304"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -44730,11 +44820,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97806592"/>
-        <c:axId val="97804672"/>
+        <c:axId val="97862784"/>
+        <c:axId val="97860608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97779712"/>
+        <c:axId val="97852032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -44773,7 +44863,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97781632"/>
+        <c:crossAx val="97858304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -44783,7 +44873,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97781632"/>
+        <c:axId val="97858304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -44822,7 +44912,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97779712"/>
+        <c:crossAx val="97852032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -44847,7 +44937,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97804672"/>
+        <c:axId val="97860608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.55098482246641212"/>
@@ -44888,14 +44978,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97806592"/>
+        <c:crossAx val="97862784"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="97806592"/>
+        <c:axId val="97862784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -44904,7 +44994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97804672"/>
+        <c:crossAx val="97860608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -45706,7 +45796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -49776,6 +49866,15 @@
       <c r="J100">
         <v>63376000</v>
       </c>
+      <c r="K100">
+        <v>0.2345894</v>
+      </c>
+      <c r="L100">
+        <v>0.22535079999999999</v>
+      </c>
+      <c r="M100">
+        <v>65554000</v>
+      </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
@@ -49808,6 +49907,15 @@
       <c r="J101">
         <v>63376000</v>
       </c>
+      <c r="K101">
+        <v>0.2345894</v>
+      </c>
+      <c r="L101">
+        <v>0.23140230000000001</v>
+      </c>
+      <c r="M101">
+        <v>65554000</v>
+      </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
@@ -49840,6 +49948,15 @@
       <c r="J102">
         <v>63376000</v>
       </c>
+      <c r="K102">
+        <v>0.2345894</v>
+      </c>
+      <c r="L102">
+        <v>0.2306753</v>
+      </c>
+      <c r="M102">
+        <v>65554000</v>
+      </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
@@ -49872,6 +49989,15 @@
       <c r="J103">
         <v>63376000</v>
       </c>
+      <c r="K103">
+        <v>0.2345894</v>
+      </c>
+      <c r="L103">
+        <v>0.22336249999999999</v>
+      </c>
+      <c r="M103">
+        <v>65554000</v>
+      </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
@@ -49903,6 +50029,15 @@
       </c>
       <c r="J104">
         <v>63376000</v>
+      </c>
+      <c r="K104">
+        <v>0.2345894</v>
+      </c>
+      <c r="L104">
+        <v>0.2241168</v>
+      </c>
+      <c r="M104">
+        <v>65554000</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -54426,7 +54561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q378"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
@@ -58650,6 +58785,15 @@
       <c r="K100">
         <v>16165000</v>
       </c>
+      <c r="L100">
+        <v>3097000</v>
+      </c>
+      <c r="M100">
+        <v>2100000</v>
+      </c>
+      <c r="N100">
+        <v>850000</v>
+      </c>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101">
@@ -58683,6 +58827,15 @@
       <c r="K101">
         <v>16165000</v>
       </c>
+      <c r="L101">
+        <v>3097000</v>
+      </c>
+      <c r="M101">
+        <v>2100000</v>
+      </c>
+      <c r="N101">
+        <v>850000</v>
+      </c>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102">
@@ -58716,6 +58869,15 @@
       <c r="K102">
         <v>16165000</v>
       </c>
+      <c r="L102">
+        <v>3097000</v>
+      </c>
+      <c r="M102">
+        <v>2100000</v>
+      </c>
+      <c r="N102">
+        <v>850000</v>
+      </c>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103">
@@ -58749,6 +58911,15 @@
       <c r="K103">
         <v>16165000</v>
       </c>
+      <c r="L103">
+        <v>3097000</v>
+      </c>
+      <c r="M103">
+        <v>2100000</v>
+      </c>
+      <c r="N103">
+        <v>850000</v>
+      </c>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104">
@@ -58781,6 +58952,15 @@
       </c>
       <c r="K104">
         <v>16165000</v>
+      </c>
+      <c r="L104">
+        <v>3097000</v>
+      </c>
+      <c r="M104">
+        <v>2100000</v>
+      </c>
+      <c r="N104">
+        <v>850000</v>
       </c>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.25">

--- a/Post (na) Scriptie - Experiment resultaten.xlsx
+++ b/Post (na) Scriptie - Experiment resultaten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-150" yWindow="-240" windowWidth="29100" windowHeight="13215"/>
+    <workbookView xWindow="-150" yWindow="-240" windowWidth="29100" windowHeight="13215" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fitnesses &amp; Outputs" sheetId="1" r:id="rId1"/>
@@ -8129,8 +8129,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91257472"/>
-        <c:axId val="101675776"/>
+        <c:axId val="40914944"/>
+        <c:axId val="40916864"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10992,11 +10992,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102130048"/>
-        <c:axId val="101678080"/>
+        <c:axId val="40925440"/>
+        <c:axId val="40923136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91257472"/>
+        <c:axId val="40914944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11036,7 +11036,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101675776"/>
+        <c:crossAx val="40916864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11046,7 +11046,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101675776"/>
+        <c:axId val="40916864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11086,12 +11086,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91257472"/>
+        <c:crossAx val="40914944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101678080"/>
+        <c:axId val="40923136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11132,7 +11132,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102130048"/>
+        <c:crossAx val="40925440"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -11153,7 +11153,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:catAx>
-        <c:axId val="102130048"/>
+        <c:axId val="40925440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11163,7 +11163,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101678080"/>
+        <c:crossAx val="40923136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11848,6 +11848,48 @@
                 <c:pt idx="42">
                   <c:v>0.17458750000000001</c:v>
                 </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.1770311</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.1770311</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.1770311</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.1775738</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.1775738</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.17792649999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.17792649999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.1790515</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.1790515</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.1790515</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.1790515</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.1790515</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.17905199999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.17905199999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12013,6 +12055,48 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.15276670000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.15925249999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.15490860000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.15621940000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.15515019999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.15827730000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.15662419999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.15261720000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.160776</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.1579728</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.160217</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.14731959999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.1517442</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.1492098</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.1460968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12095,8 +12179,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103552128"/>
-        <c:axId val="103554048"/>
+        <c:axId val="76330496"/>
+        <c:axId val="76332416"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12273,6 +12357,48 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>48815000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>49501000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49501000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>49501000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>49658000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>49658000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49752000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49752000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50070000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>50070000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>50070000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>50070000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>50070000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>50070000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>50070000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12826,11 +12952,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111504768"/>
-        <c:axId val="108105728"/>
+        <c:axId val="138313728"/>
+        <c:axId val="121046528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103552128"/>
+        <c:axId val="76330496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12870,7 +12996,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103554048"/>
+        <c:crossAx val="76332416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12880,7 +13006,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103554048"/>
+        <c:axId val="76332416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12920,12 +13046,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103552128"/>
+        <c:crossAx val="76330496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108105728"/>
+        <c:axId val="121046528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12966,7 +13092,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111504768"/>
+        <c:crossAx val="138313728"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -12977,7 +13103,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:catAx>
-        <c:axId val="111504768"/>
+        <c:axId val="138313728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12987,7 +13113,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108105728"/>
+        <c:crossAx val="121046528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -24958,8 +25084,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="136556544"/>
-        <c:axId val="138208000"/>
+        <c:axId val="96784384"/>
+        <c:axId val="96786304"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -25020,11 +25146,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="142504320"/>
-        <c:axId val="139725056"/>
+        <c:axId val="96790784"/>
+        <c:axId val="96788864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136556544"/>
+        <c:axId val="96784384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25057,13 +25183,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138208000"/>
+        <c:crossAx val="96786304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -25073,7 +25200,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138208000"/>
+        <c:axId val="96786304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25106,18 +25233,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136556544"/>
+        <c:crossAx val="96784384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
           <c:dispUnitsLbl>
+            <c:layout/>
             <c:tx>
               <c:rich>
                 <a:bodyPr rot="-5400000" vert="horz"/>
@@ -25137,7 +25266,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="139725056"/>
+        <c:axId val="96788864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.29577009361005"/>
@@ -25173,20 +25302,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142504320"/>
+        <c:crossAx val="96790784"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
         <c:minorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="142504320"/>
+        <c:axId val="96790784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25195,7 +25325,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139725056"/>
+        <c:crossAx val="96788864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -25205,6 +25335,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -25864,6 +25995,51 @@
                 <c:pt idx="41">
                   <c:v>26774000</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>26774000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>29892000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>29892000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>29892000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>28621000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>28621000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>30125000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>30125000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>30125000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>30125000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>30125000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>30125000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>30125000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>30125000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>30125000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -26489,6 +26665,51 @@
                 <c:pt idx="41">
                   <c:v>17000</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5495000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5495000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>17000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -27113,6 +27334,51 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>11315000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11315000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11315000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11315000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11315000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13025000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>13025000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12362000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12362000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>14906000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14906000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27225,8 +27491,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="150661760"/>
-        <c:axId val="150792448"/>
+        <c:axId val="96849920"/>
+        <c:axId val="96851840"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -27287,11 +27553,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="156150784"/>
-        <c:axId val="156148480"/>
+        <c:axId val="96860416"/>
+        <c:axId val="96858496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="150661760"/>
+        <c:axId val="96849920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27324,13 +27590,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150792448"/>
+        <c:crossAx val="96851840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -27340,7 +27607,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150792448"/>
+        <c:axId val="96851840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27373,18 +27640,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150661760"/>
+        <c:crossAx val="96849920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
           <c:dispUnitsLbl>
+            <c:layout/>
             <c:tx>
               <c:rich>
                 <a:bodyPr rot="-5400000" vert="horz"/>
@@ -27404,10 +27673,10 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="156148480"/>
+        <c:axId val="96858496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2.7549241123320605"/>
+          <c:max val="3.2140781310540696"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -27440,20 +27709,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156150784"/>
+        <c:crossAx val="96860416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.2"/>
-        <c:minorUnit val="0.1"/>
+        <c:majorUnit val="0.25"/>
+        <c:minorUnit val="0.125"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="156150784"/>
+        <c:axId val="96860416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27462,7 +27732,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156148480"/>
+        <c:crossAx val="96858496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -27472,6 +27742,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -39419,8 +39690,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77767808"/>
-        <c:axId val="77769728"/>
+        <c:axId val="97256192"/>
+        <c:axId val="97258112"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -39481,11 +39752,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77782400"/>
-        <c:axId val="77780480"/>
+        <c:axId val="97266688"/>
+        <c:axId val="97264768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77767808"/>
+        <c:axId val="97256192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -39524,7 +39795,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77769728"/>
+        <c:crossAx val="97258112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -39534,7 +39805,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77769728"/>
+        <c:axId val="97258112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -39573,7 +39844,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77767808"/>
+        <c:crossAx val="97256192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -39598,7 +39869,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77780480"/>
+        <c:axId val="97264768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.55098482246641212"/>
@@ -39639,14 +39910,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77782400"/>
+        <c:crossAx val="97266688"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="77782400"/>
+        <c:axId val="97266688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -39655,7 +39926,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77780480"/>
+        <c:crossAx val="97264768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -41571,8 +41842,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77793536"/>
-        <c:axId val="77795712"/>
+        <c:axId val="97302400"/>
+        <c:axId val="97312768"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -41633,11 +41904,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77808384"/>
-        <c:axId val="77798016"/>
+        <c:axId val="97386880"/>
+        <c:axId val="97315072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77793536"/>
+        <c:axId val="97302400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -41676,7 +41947,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77795712"/>
+        <c:crossAx val="97312768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -41686,7 +41957,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77795712"/>
+        <c:axId val="97312768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -41725,7 +41996,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77793536"/>
+        <c:crossAx val="97302400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -41750,7 +42021,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77798016"/>
+        <c:axId val="97315072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.55098482246641212"/>
@@ -41791,14 +42062,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77808384"/>
+        <c:crossAx val="97386880"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="77808384"/>
+        <c:axId val="97386880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -41807,7 +42078,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77798016"/>
+        <c:crossAx val="97315072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -42609,7 +42880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -44060,8 +44331,15 @@
       <c r="G46">
         <v>68459000</v>
       </c>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
+      <c r="H46" s="5">
+        <v>0.1770311</v>
+      </c>
+      <c r="I46" s="5">
+        <v>0.15925249999999999</v>
+      </c>
+      <c r="J46">
+        <v>49501000</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -44085,8 +44363,15 @@
       <c r="G47">
         <v>68459000</v>
       </c>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
+      <c r="H47" s="5">
+        <v>0.1770311</v>
+      </c>
+      <c r="I47" s="5">
+        <v>0.15490860000000001</v>
+      </c>
+      <c r="J47">
+        <v>49501000</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -44110,10 +44395,17 @@
       <c r="G48">
         <v>68459000</v>
       </c>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H48" s="5">
+        <v>0.1770311</v>
+      </c>
+      <c r="I48" s="5">
+        <v>0.15621940000000001</v>
+      </c>
+      <c r="J48">
+        <v>49501000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>95907961</v>
       </c>
@@ -44135,10 +44427,17 @@
       <c r="G49">
         <v>68459000</v>
       </c>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H49" s="5">
+        <v>0.1775738</v>
+      </c>
+      <c r="I49" s="5">
+        <v>0.15515019999999999</v>
+      </c>
+      <c r="J49">
+        <v>49658000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>95907961</v>
       </c>
@@ -44160,10 +44459,17 @@
       <c r="G50">
         <v>68459000</v>
       </c>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H50" s="5">
+        <v>0.1775738</v>
+      </c>
+      <c r="I50" s="5">
+        <v>0.15827730000000001</v>
+      </c>
+      <c r="J50">
+        <v>49658000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>95907961</v>
       </c>
@@ -44185,10 +44491,17 @@
       <c r="G51">
         <v>68459000</v>
       </c>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H51" s="5">
+        <v>0.17792649999999999</v>
+      </c>
+      <c r="I51" s="5">
+        <v>0.15662419999999999</v>
+      </c>
+      <c r="J51">
+        <v>49752000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>95907961</v>
       </c>
@@ -44210,10 +44523,17 @@
       <c r="G52">
         <v>68459000</v>
       </c>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H52" s="5">
+        <v>0.17792649999999999</v>
+      </c>
+      <c r="I52" s="5">
+        <v>0.15261720000000001</v>
+      </c>
+      <c r="J52">
+        <v>49752000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>95907961</v>
       </c>
@@ -44235,10 +44555,17 @@
       <c r="G53">
         <v>68459000</v>
       </c>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H53" s="5">
+        <v>0.1790515</v>
+      </c>
+      <c r="I53" s="5">
+        <v>0.160776</v>
+      </c>
+      <c r="J53">
+        <v>50070000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>95907961</v>
       </c>
@@ -44260,10 +44587,17 @@
       <c r="G54">
         <v>68459000</v>
       </c>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H54" s="5">
+        <v>0.1790515</v>
+      </c>
+      <c r="I54" s="5">
+        <v>0.1579728</v>
+      </c>
+      <c r="J54">
+        <v>50070000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>95907961</v>
       </c>
@@ -44285,10 +44619,17 @@
       <c r="G55">
         <v>68459000</v>
       </c>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H55" s="5">
+        <v>0.1790515</v>
+      </c>
+      <c r="I55" s="5">
+        <v>0.160217</v>
+      </c>
+      <c r="J55">
+        <v>50070000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>95907961</v>
       </c>
@@ -44310,10 +44651,17 @@
       <c r="G56">
         <v>69598000</v>
       </c>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H56" s="5">
+        <v>0.1790515</v>
+      </c>
+      <c r="I56" s="5">
+        <v>0.14731959999999999</v>
+      </c>
+      <c r="J56">
+        <v>50070000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>95907961</v>
       </c>
@@ -44335,10 +44683,17 @@
       <c r="G57">
         <v>69598000</v>
       </c>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H57" s="5">
+        <v>0.1790515</v>
+      </c>
+      <c r="I57" s="5">
+        <v>0.1517442</v>
+      </c>
+      <c r="J57">
+        <v>50070000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>95907961</v>
       </c>
@@ -44360,10 +44715,17 @@
       <c r="G58">
         <v>69956000</v>
       </c>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H58" s="5">
+        <v>0.17905199999999999</v>
+      </c>
+      <c r="I58" s="5">
+        <v>0.1492098</v>
+      </c>
+      <c r="J58">
+        <v>50070000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>95907961</v>
       </c>
@@ -44385,10 +44747,17 @@
       <c r="G59">
         <v>69956000</v>
       </c>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H59" s="5">
+        <v>0.17905199999999999</v>
+      </c>
+      <c r="I59" s="5">
+        <v>0.1460968</v>
+      </c>
+      <c r="J59">
+        <v>50070000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>95907961</v>
       </c>
@@ -44413,7 +44782,7 @@
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>95907961</v>
       </c>
@@ -44438,7 +44807,7 @@
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>95907961</v>
       </c>
@@ -44463,7 +44832,7 @@
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>95907961</v>
       </c>
@@ -44488,7 +44857,7 @@
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>95907961</v>
       </c>
@@ -49891,7 +50260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q378"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
@@ -50026,7 +50395,7 @@
       </c>
       <c r="P4" s="4">
         <f>P9/6*1</f>
-        <v>0.45915401872201</v>
+        <v>0.53567968850901171</v>
       </c>
       <c r="Q4">
         <v>-1</v>
@@ -50066,7 +50435,7 @@
       </c>
       <c r="P5" s="3">
         <f>P9/6*2</f>
-        <v>0.91830803744402001</v>
+        <v>1.0713593770180234</v>
       </c>
       <c r="Q5">
         <v>-1</v>
@@ -50106,7 +50475,7 @@
       </c>
       <c r="P6" s="3">
         <f>P9/6*3</f>
-        <v>1.37746205616603</v>
+        <v>1.6070390655270352</v>
       </c>
       <c r="Q6">
         <v>-1</v>
@@ -50146,7 +50515,7 @@
       </c>
       <c r="P7" s="3">
         <f>P9/6*4</f>
-        <v>1.83661607488804</v>
+        <v>2.1427187540360468</v>
       </c>
       <c r="Q7">
         <v>-1</v>
@@ -50186,7 +50555,7 @@
       </c>
       <c r="P8" s="3">
         <f>P9/6*5</f>
-        <v>2.29577009361005</v>
+        <v>2.6783984425450584</v>
       </c>
       <c r="Q8">
         <v>-1</v>
@@ -50225,7 +50594,7 @@
         <v>13979000</v>
       </c>
       <c r="P9" s="3">
-        <v>2.75492411233206</v>
+        <v>3.21407813105407</v>
       </c>
       <c r="Q9">
         <v>-1</v>
@@ -51409,6 +51778,15 @@
       <c r="H45">
         <v>14349000</v>
       </c>
+      <c r="I45">
+        <v>26774000</v>
+      </c>
+      <c r="J45">
+        <v>17000</v>
+      </c>
+      <c r="K45">
+        <v>11315000</v>
+      </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46">
@@ -51433,6 +51811,15 @@
       <c r="H46">
         <v>14349000</v>
       </c>
+      <c r="I46">
+        <v>29892000</v>
+      </c>
+      <c r="J46">
+        <v>17000</v>
+      </c>
+      <c r="K46">
+        <v>11315000</v>
+      </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47">
@@ -51457,6 +51844,15 @@
       <c r="H47">
         <v>14349000</v>
       </c>
+      <c r="I47">
+        <v>29892000</v>
+      </c>
+      <c r="J47">
+        <v>17000</v>
+      </c>
+      <c r="K47">
+        <v>11315000</v>
+      </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48">
@@ -51481,8 +51877,17 @@
       <c r="H48">
         <v>14349000</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <v>29892000</v>
+      </c>
+      <c r="J48">
+        <v>17000</v>
+      </c>
+      <c r="K48">
+        <v>11315000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -51505,8 +51910,17 @@
       <c r="H49">
         <v>14349000</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <v>28621000</v>
+      </c>
+      <c r="J49">
+        <v>5495000</v>
+      </c>
+      <c r="K49">
+        <v>13025000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -51529,8 +51943,17 @@
       <c r="H50">
         <v>14349000</v>
       </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <v>28621000</v>
+      </c>
+      <c r="J50">
+        <v>5495000</v>
+      </c>
+      <c r="K50">
+        <v>13025000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -51553,8 +51976,17 @@
       <c r="H51">
         <v>14349000</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <v>30125000</v>
+      </c>
+      <c r="J51">
+        <v>17000</v>
+      </c>
+      <c r="K51">
+        <v>12362000</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -51577,8 +52009,17 @@
       <c r="H52">
         <v>14349000</v>
       </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <v>30125000</v>
+      </c>
+      <c r="J52">
+        <v>17000</v>
+      </c>
+      <c r="K52">
+        <v>12362000</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -51601,8 +52042,17 @@
       <c r="H53">
         <v>14349000</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <v>30125000</v>
+      </c>
+      <c r="J53">
+        <v>17000</v>
+      </c>
+      <c r="K53">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -51625,8 +52075,17 @@
       <c r="H54">
         <v>14349000</v>
       </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <v>30125000</v>
+      </c>
+      <c r="J54">
+        <v>17000</v>
+      </c>
+      <c r="K54">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -51649,8 +52108,17 @@
       <c r="H55">
         <v>14349000</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <v>30125000</v>
+      </c>
+      <c r="J55">
+        <v>17000</v>
+      </c>
+      <c r="K55">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -51673,8 +52141,17 @@
       <c r="H56">
         <v>14349000</v>
       </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <v>30125000</v>
+      </c>
+      <c r="J56">
+        <v>17000</v>
+      </c>
+      <c r="K56">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -51697,8 +52174,17 @@
       <c r="H57">
         <v>14349000</v>
       </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <v>30125000</v>
+      </c>
+      <c r="J57">
+        <v>17000</v>
+      </c>
+      <c r="K57">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -51721,8 +52207,17 @@
       <c r="H58">
         <v>14349000</v>
       </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <v>30125000</v>
+      </c>
+      <c r="J58">
+        <v>17000</v>
+      </c>
+      <c r="K58">
+        <v>14906000</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -51745,8 +52240,17 @@
       <c r="H59">
         <v>14349000</v>
       </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <v>30125000</v>
+      </c>
+      <c r="J59">
+        <v>17000</v>
+      </c>
+      <c r="K59">
+        <v>14906000</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -51770,7 +52274,7 @@
         <v>14349000</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -51794,7 +52298,7 @@
         <v>14349000</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -51818,7 +52322,7 @@
         <v>7190000</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -51842,7 +52346,7 @@
         <v>7190000</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64">
         <f t="shared" si="0"/>
         <v>61</v>

--- a/Post (na) Scriptie - Experiment resultaten.xlsx
+++ b/Post (na) Scriptie - Experiment resultaten.xlsx
@@ -8129,8 +8129,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40914944"/>
-        <c:axId val="40916864"/>
+        <c:axId val="96877184"/>
+        <c:axId val="122000128"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10992,11 +10992,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40925440"/>
-        <c:axId val="40923136"/>
+        <c:axId val="125967744"/>
+        <c:axId val="122002432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40914944"/>
+        <c:axId val="96877184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11036,7 +11036,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40916864"/>
+        <c:crossAx val="122000128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11046,7 +11046,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40916864"/>
+        <c:axId val="122000128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11086,12 +11086,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40914944"/>
+        <c:crossAx val="96877184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="40923136"/>
+        <c:axId val="122002432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11132,7 +11132,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40925440"/>
+        <c:crossAx val="125967744"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -11153,7 +11153,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:catAx>
-        <c:axId val="40925440"/>
+        <c:axId val="125967744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11163,7 +11163,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40923136"/>
+        <c:crossAx val="122002432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11890,6 +11890,12 @@
                 <c:pt idx="56">
                   <c:v>0.17905199999999999</c:v>
                 </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.17905199999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.17905199999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12097,6 +12103,12 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>0.1460968</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.15774460000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.14902219999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12179,8 +12191,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76330496"/>
-        <c:axId val="76332416"/>
+        <c:axId val="40868480"/>
+        <c:axId val="40878848"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12398,6 +12410,12 @@
                   <c:v>50070000</c:v>
                 </c:pt>
                 <c:pt idx="56">
+                  <c:v>50070000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>50070000</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>50070000</c:v>
                 </c:pt>
               </c:numCache>
@@ -12952,11 +12970,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="138313728"/>
-        <c:axId val="121046528"/>
+        <c:axId val="40907904"/>
+        <c:axId val="40880768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76330496"/>
+        <c:axId val="40868480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12996,7 +13014,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76332416"/>
+        <c:crossAx val="40878848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13006,7 +13024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76332416"/>
+        <c:axId val="40878848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13046,12 +13064,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76330496"/>
+        <c:crossAx val="40868480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="121046528"/>
+        <c:axId val="40880768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13092,7 +13110,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138313728"/>
+        <c:crossAx val="40907904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -13103,7 +13121,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:catAx>
-        <c:axId val="138313728"/>
+        <c:axId val="40907904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13113,7 +13131,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121046528"/>
+        <c:crossAx val="40880768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -25084,8 +25102,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96784384"/>
-        <c:axId val="96786304"/>
+        <c:axId val="53898240"/>
+        <c:axId val="53900416"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -25146,11 +25164,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96790784"/>
-        <c:axId val="96788864"/>
+        <c:axId val="53904896"/>
+        <c:axId val="53902720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96784384"/>
+        <c:axId val="53898240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25190,7 +25208,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96786304"/>
+        <c:crossAx val="53900416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -25200,7 +25218,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96786304"/>
+        <c:axId val="53900416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25240,7 +25258,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96784384"/>
+        <c:crossAx val="53898240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -25266,7 +25284,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96788864"/>
+        <c:axId val="53902720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.29577009361005"/>
@@ -25309,14 +25327,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96790784"/>
+        <c:crossAx val="53904896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
         <c:minorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="96790784"/>
+        <c:axId val="53904896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25325,7 +25343,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96788864"/>
+        <c:crossAx val="53902720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -26040,6 +26058,12 @@
                 <c:pt idx="56">
                   <c:v>30125000</c:v>
                 </c:pt>
+                <c:pt idx="57">
+                  <c:v>30125000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>30125000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -26710,6 +26734,12 @@
                 <c:pt idx="56">
                   <c:v>17000</c:v>
                 </c:pt>
+                <c:pt idx="57">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>17000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -27378,6 +27408,12 @@
                   <c:v>14906000</c:v>
                 </c:pt>
                 <c:pt idx="56">
+                  <c:v>14906000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14906000</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>14906000</c:v>
                 </c:pt>
               </c:numCache>
@@ -27491,8 +27527,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96849920"/>
-        <c:axId val="96851840"/>
+        <c:axId val="55847936"/>
+        <c:axId val="55854208"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -27553,11 +27589,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96860416"/>
-        <c:axId val="96858496"/>
+        <c:axId val="55858688"/>
+        <c:axId val="55856512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96849920"/>
+        <c:axId val="55847936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27597,7 +27633,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96851840"/>
+        <c:crossAx val="55854208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -27607,7 +27643,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96851840"/>
+        <c:axId val="55854208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27647,7 +27683,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96849920"/>
+        <c:crossAx val="55847936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -27673,7 +27709,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96858496"/>
+        <c:axId val="55856512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.2140781310540696"/>
@@ -27716,14 +27752,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96860416"/>
+        <c:crossAx val="55858688"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
         <c:minorUnit val="0.125"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="96860416"/>
+        <c:axId val="55858688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27732,7 +27768,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96858496"/>
+        <c:crossAx val="55856512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -39690,8 +39726,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97256192"/>
-        <c:axId val="97258112"/>
+        <c:axId val="55881088"/>
+        <c:axId val="55887360"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -39752,11 +39788,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97266688"/>
-        <c:axId val="97264768"/>
+        <c:axId val="55891840"/>
+        <c:axId val="55889920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97256192"/>
+        <c:axId val="55881088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -39795,7 +39831,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97258112"/>
+        <c:crossAx val="55887360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -39805,7 +39841,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97258112"/>
+        <c:axId val="55887360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -39844,7 +39880,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97256192"/>
+        <c:crossAx val="55881088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -39869,7 +39905,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97264768"/>
+        <c:axId val="55889920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.55098482246641212"/>
@@ -39910,14 +39946,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97266688"/>
+        <c:crossAx val="55891840"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="97266688"/>
+        <c:axId val="55891840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -39926,7 +39962,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97264768"/>
+        <c:crossAx val="55889920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -41842,8 +41878,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97302400"/>
-        <c:axId val="97312768"/>
+        <c:axId val="56173696"/>
+        <c:axId val="56175616"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -41904,11 +41940,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97386880"/>
-        <c:axId val="97315072"/>
+        <c:axId val="56180096"/>
+        <c:axId val="56178176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97302400"/>
+        <c:axId val="56173696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -41947,7 +41983,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97312768"/>
+        <c:crossAx val="56175616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -41957,7 +41993,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97312768"/>
+        <c:axId val="56175616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -41996,7 +42032,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97302400"/>
+        <c:crossAx val="56173696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -42021,7 +42057,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97315072"/>
+        <c:axId val="56178176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.55098482246641212"/>
@@ -42062,14 +42098,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97386880"/>
+        <c:crossAx val="56180096"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="97386880"/>
+        <c:axId val="56180096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -42078,7 +42114,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97315072"/>
+        <c:crossAx val="56178176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -44779,8 +44815,15 @@
       <c r="G60">
         <v>70262000</v>
       </c>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
+      <c r="H60" s="5">
+        <v>0.17905199999999999</v>
+      </c>
+      <c r="I60" s="5">
+        <v>0.15774460000000001</v>
+      </c>
+      <c r="J60">
+        <v>50070000</v>
+      </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -44804,8 +44847,15 @@
       <c r="G61">
         <v>70429000</v>
       </c>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
+      <c r="H61" s="5">
+        <v>0.17905199999999999</v>
+      </c>
+      <c r="I61" s="5">
+        <v>0.14902219999999999</v>
+      </c>
+      <c r="J61">
+        <v>50070000</v>
+      </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
@@ -52273,6 +52323,15 @@
       <c r="H60">
         <v>14349000</v>
       </c>
+      <c r="I60">
+        <v>30125000</v>
+      </c>
+      <c r="J60">
+        <v>17000</v>
+      </c>
+      <c r="K60">
+        <v>14906000</v>
+      </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61">
@@ -52296,6 +52355,15 @@
       </c>
       <c r="H61">
         <v>14349000</v>
+      </c>
+      <c r="I61">
+        <v>30125000</v>
+      </c>
+      <c r="J61">
+        <v>17000</v>
+      </c>
+      <c r="K61">
+        <v>14906000</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">

--- a/Post (na) Scriptie - Experiment resultaten.xlsx
+++ b/Post (na) Scriptie - Experiment resultaten.xlsx
@@ -8129,8 +8129,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96877184"/>
-        <c:axId val="122000128"/>
+        <c:axId val="167394688"/>
+        <c:axId val="167683968"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10992,11 +10992,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="125967744"/>
-        <c:axId val="122002432"/>
+        <c:axId val="83892480"/>
+        <c:axId val="83890176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96877184"/>
+        <c:axId val="167394688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11036,7 +11036,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122000128"/>
+        <c:crossAx val="167683968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11046,7 +11046,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122000128"/>
+        <c:axId val="167683968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11086,12 +11086,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96877184"/>
+        <c:crossAx val="167394688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="122002432"/>
+        <c:axId val="83890176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11132,7 +11132,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125967744"/>
+        <c:crossAx val="83892480"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -11153,7 +11153,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:catAx>
-        <c:axId val="125967744"/>
+        <c:axId val="83892480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11163,7 +11163,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122002432"/>
+        <c:crossAx val="83890176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11896,6 +11896,45 @@
                 <c:pt idx="58">
                   <c:v>0.17905199999999999</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.17905199999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.17910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.17910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.17910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.17910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.17910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.17910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.17910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.17910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.17910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.17910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.17910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.17912069999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12109,6 +12148,45 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>0.14902219999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.14911559999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.15150150000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.15529570000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.14973520000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.1572548</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.1468739</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.1482087</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.14078019999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.14836450000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.14612269999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.14679800000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.1459753</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.14690829999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12191,8 +12269,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40868480"/>
-        <c:axId val="40878848"/>
+        <c:axId val="83950592"/>
+        <c:axId val="100947072"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12417,6 +12495,45 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>50070000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>50070000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>50083000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>50083000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>50083000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>50083000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>50083000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>50083000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>50083000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>50083000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>50083000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>50083000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>50083000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>50090000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12970,11 +13087,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40907904"/>
-        <c:axId val="40880768"/>
+        <c:axId val="100955648"/>
+        <c:axId val="100948992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40868480"/>
+        <c:axId val="83950592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13014,7 +13131,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40878848"/>
+        <c:crossAx val="100947072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13024,7 +13141,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40878848"/>
+        <c:axId val="100947072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13064,12 +13181,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40868480"/>
+        <c:crossAx val="83950592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="40880768"/>
+        <c:axId val="100948992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13110,7 +13227,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40907904"/>
+        <c:crossAx val="100955648"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -13121,7 +13238,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:catAx>
-        <c:axId val="40907904"/>
+        <c:axId val="100955648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13131,7 +13248,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40880768"/>
+        <c:crossAx val="100948992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -25102,8 +25219,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="53898240"/>
-        <c:axId val="53900416"/>
+        <c:axId val="101179392"/>
+        <c:axId val="101181312"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -25164,11 +25281,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="53904896"/>
-        <c:axId val="53902720"/>
+        <c:axId val="101845248"/>
+        <c:axId val="101843328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="53898240"/>
+        <c:axId val="101179392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25208,7 +25325,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53900416"/>
+        <c:crossAx val="101181312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -25218,7 +25335,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53900416"/>
+        <c:axId val="101181312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25258,7 +25375,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53898240"/>
+        <c:crossAx val="101179392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -25284,7 +25401,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="53902720"/>
+        <c:axId val="101843328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.29577009361005"/>
@@ -25327,14 +25444,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53904896"/>
+        <c:crossAx val="101845248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
         <c:minorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="53904896"/>
+        <c:axId val="101845248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25343,7 +25460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53902720"/>
+        <c:crossAx val="101843328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -26064,6 +26181,45 @@
                 <c:pt idx="58">
                   <c:v>30125000</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>30125000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30125000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>30125000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>30125000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>30125000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>30125000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>30125000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>30125000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>30125000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>30125000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>30125000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>30125000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>31412000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -26740,6 +26896,45 @@
                 <c:pt idx="58">
                   <c:v>17000</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>17000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -27415,6 +27610,45 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>14906000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>14906000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>14973000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>14973000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>14973000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>14973000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>14973000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>14973000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>14973000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>14973000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>14973000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>14973000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>14973000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>15057000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27527,8 +27761,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="55847936"/>
-        <c:axId val="55854208"/>
+        <c:axId val="101904384"/>
+        <c:axId val="101906304"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -27589,11 +27823,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="55858688"/>
-        <c:axId val="55856512"/>
+        <c:axId val="101918976"/>
+        <c:axId val="101917056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="55847936"/>
+        <c:axId val="101904384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27633,7 +27867,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55854208"/>
+        <c:crossAx val="101906304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -27643,7 +27877,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55854208"/>
+        <c:axId val="101906304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27683,7 +27917,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55847936"/>
+        <c:crossAx val="101904384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -27709,7 +27943,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55856512"/>
+        <c:axId val="101917056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.2140781310540696"/>
@@ -27752,14 +27986,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55858688"/>
+        <c:crossAx val="101918976"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
         <c:minorUnit val="0.125"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="55858688"/>
+        <c:axId val="101918976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27768,7 +28002,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55856512"/>
+        <c:crossAx val="101917056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -39726,8 +39960,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="55881088"/>
-        <c:axId val="55887360"/>
+        <c:axId val="101978880"/>
+        <c:axId val="101980800"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -39788,11 +40022,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="55891840"/>
-        <c:axId val="55889920"/>
+        <c:axId val="101989376"/>
+        <c:axId val="101987456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="55881088"/>
+        <c:axId val="101978880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -39831,7 +40065,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55887360"/>
+        <c:crossAx val="101980800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -39841,7 +40075,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55887360"/>
+        <c:axId val="101980800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -39880,7 +40114,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55881088"/>
+        <c:crossAx val="101978880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -39905,7 +40139,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55889920"/>
+        <c:axId val="101987456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.55098482246641212"/>
@@ -39946,14 +40180,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55891840"/>
+        <c:crossAx val="101989376"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="55891840"/>
+        <c:axId val="101989376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -39962,7 +40196,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55889920"/>
+        <c:crossAx val="101987456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -41878,8 +42112,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="56173696"/>
-        <c:axId val="56175616"/>
+        <c:axId val="102022144"/>
+        <c:axId val="102036608"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -41940,11 +42174,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="56180096"/>
-        <c:axId val="56178176"/>
+        <c:axId val="102118912"/>
+        <c:axId val="102038912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56173696"/>
+        <c:axId val="102022144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -41983,7 +42217,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56175616"/>
+        <c:crossAx val="102036608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -41993,7 +42227,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56175616"/>
+        <c:axId val="102036608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -42032,7 +42266,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56173696"/>
+        <c:crossAx val="102022144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -42057,7 +42291,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="56178176"/>
+        <c:axId val="102038912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.55098482246641212"/>
@@ -42098,14 +42332,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56180096"/>
+        <c:crossAx val="102118912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="56180096"/>
+        <c:axId val="102118912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -42114,7 +42348,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56178176"/>
+        <c:crossAx val="102038912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -44879,8 +45113,15 @@
       <c r="G62">
         <v>72550000</v>
       </c>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
+      <c r="H62" s="5">
+        <v>0.17905199999999999</v>
+      </c>
+      <c r="I62" s="5">
+        <v>0.14911559999999999</v>
+      </c>
+      <c r="J62">
+        <v>50070000</v>
+      </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
@@ -44904,8 +45145,15 @@
       <c r="G63">
         <v>72941000</v>
       </c>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
+      <c r="H63" s="5">
+        <v>0.17910000000000001</v>
+      </c>
+      <c r="I63" s="5">
+        <v>0.15150150000000001</v>
+      </c>
+      <c r="J63">
+        <v>50083000</v>
+      </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
@@ -44929,10 +45177,17 @@
       <c r="G64">
         <v>72941000</v>
       </c>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H64" s="5">
+        <v>0.17910000000000001</v>
+      </c>
+      <c r="I64" s="5">
+        <v>0.15529570000000001</v>
+      </c>
+      <c r="J64">
+        <v>50083000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>95907961</v>
       </c>
@@ -44954,10 +45209,17 @@
       <c r="G65">
         <v>73441000</v>
       </c>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H65" s="5">
+        <v>0.17910000000000001</v>
+      </c>
+      <c r="I65" s="5">
+        <v>0.14973520000000001</v>
+      </c>
+      <c r="J65">
+        <v>50083000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>95907961</v>
       </c>
@@ -44979,10 +45241,17 @@
       <c r="G66">
         <v>74799000</v>
       </c>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H66" s="5">
+        <v>0.17910000000000001</v>
+      </c>
+      <c r="I66" s="5">
+        <v>0.1572548</v>
+      </c>
+      <c r="J66">
+        <v>50083000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>95907961</v>
       </c>
@@ -45004,10 +45273,17 @@
       <c r="G67">
         <v>74799000</v>
       </c>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H67" s="5">
+        <v>0.17910000000000001</v>
+      </c>
+      <c r="I67" s="5">
+        <v>0.1468739</v>
+      </c>
+      <c r="J67">
+        <v>50083000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>95907961</v>
       </c>
@@ -45029,10 +45305,17 @@
       <c r="G68">
         <v>75234000</v>
       </c>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H68" s="5">
+        <v>0.17910000000000001</v>
+      </c>
+      <c r="I68" s="5">
+        <v>0.1482087</v>
+      </c>
+      <c r="J68">
+        <v>50083000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>95907961</v>
       </c>
@@ -45054,10 +45337,17 @@
       <c r="G69">
         <v>76487000</v>
       </c>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H69" s="5">
+        <v>0.17910000000000001</v>
+      </c>
+      <c r="I69" s="5">
+        <v>0.14078019999999999</v>
+      </c>
+      <c r="J69">
+        <v>50083000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>95907961</v>
       </c>
@@ -45079,10 +45369,17 @@
       <c r="G70">
         <v>77704000</v>
       </c>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H70" s="5">
+        <v>0.17910000000000001</v>
+      </c>
+      <c r="I70" s="5">
+        <v>0.14836450000000001</v>
+      </c>
+      <c r="J70">
+        <v>50083000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>95907961</v>
       </c>
@@ -45104,10 +45401,17 @@
       <c r="G71">
         <v>77770000</v>
       </c>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H71" s="5">
+        <v>0.17910000000000001</v>
+      </c>
+      <c r="I71" s="5">
+        <v>0.14612269999999999</v>
+      </c>
+      <c r="J71">
+        <v>50083000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>95907961</v>
       </c>
@@ -45129,10 +45433,17 @@
       <c r="G72">
         <v>77810000</v>
       </c>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H72" s="5">
+        <v>0.17910000000000001</v>
+      </c>
+      <c r="I72" s="5">
+        <v>0.14679800000000001</v>
+      </c>
+      <c r="J72">
+        <v>50083000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>95907961</v>
       </c>
@@ -45154,10 +45465,17 @@
       <c r="G73">
         <v>78914000</v>
       </c>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H73" s="5">
+        <v>0.17910000000000001</v>
+      </c>
+      <c r="I73" s="5">
+        <v>0.1459753</v>
+      </c>
+      <c r="J73">
+        <v>50083000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>95907961</v>
       </c>
@@ -45179,10 +45497,17 @@
       <c r="G74">
         <v>78914000</v>
       </c>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H74" s="5">
+        <v>0.17912069999999999</v>
+      </c>
+      <c r="I74" s="5">
+        <v>0.14690829999999999</v>
+      </c>
+      <c r="J74">
+        <v>50090000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>95907961</v>
       </c>
@@ -45207,7 +45532,7 @@
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>95907961</v>
       </c>
@@ -45232,7 +45557,7 @@
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>95907961</v>
       </c>
@@ -45257,7 +45582,7 @@
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>95907961</v>
       </c>
@@ -45282,7 +45607,7 @@
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>95907961</v>
       </c>
@@ -45307,7 +45632,7 @@
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>95907961</v>
       </c>
@@ -52389,6 +52714,15 @@
       <c r="H62">
         <v>7190000</v>
       </c>
+      <c r="I62">
+        <v>30125000</v>
+      </c>
+      <c r="J62">
+        <v>17000</v>
+      </c>
+      <c r="K62">
+        <v>14906000</v>
+      </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63">
@@ -52413,6 +52747,15 @@
       <c r="H63">
         <v>7190000</v>
       </c>
+      <c r="I63">
+        <v>30125000</v>
+      </c>
+      <c r="J63">
+        <v>17000</v>
+      </c>
+      <c r="K63">
+        <v>14973000</v>
+      </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64">
@@ -52437,8 +52780,17 @@
       <c r="H64">
         <v>7190000</v>
       </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <v>30125000</v>
+      </c>
+      <c r="J64">
+        <v>17000</v>
+      </c>
+      <c r="K64">
+        <v>14973000</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -52461,8 +52813,17 @@
       <c r="H65">
         <v>7389000</v>
       </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <v>30125000</v>
+      </c>
+      <c r="J65">
+        <v>17000</v>
+      </c>
+      <c r="K65">
+        <v>14973000</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -52485,8 +52846,17 @@
       <c r="H66">
         <v>7190000</v>
       </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <v>30125000</v>
+      </c>
+      <c r="J66">
+        <v>17000</v>
+      </c>
+      <c r="K66">
+        <v>14973000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -52509,8 +52879,17 @@
       <c r="H67">
         <v>7190000</v>
       </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <v>30125000</v>
+      </c>
+      <c r="J67">
+        <v>17000</v>
+      </c>
+      <c r="K67">
+        <v>14973000</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -52533,8 +52912,17 @@
       <c r="H68">
         <v>7389000</v>
       </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <v>30125000</v>
+      </c>
+      <c r="J68">
+        <v>17000</v>
+      </c>
+      <c r="K68">
+        <v>14973000</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69">
         <f t="shared" ref="B69:B132" si="1">B68+1</f>
         <v>66</v>
@@ -52557,8 +52945,17 @@
       <c r="H69">
         <v>7389000</v>
       </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <v>30125000</v>
+      </c>
+      <c r="J69">
+        <v>17000</v>
+      </c>
+      <c r="K69">
+        <v>14973000</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -52581,8 +52978,17 @@
       <c r="H70">
         <v>5332000</v>
       </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <v>30125000</v>
+      </c>
+      <c r="J70">
+        <v>17000</v>
+      </c>
+      <c r="K70">
+        <v>14973000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -52605,8 +53011,17 @@
       <c r="H71">
         <v>5332000</v>
       </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <v>30125000</v>
+      </c>
+      <c r="J71">
+        <v>17000</v>
+      </c>
+      <c r="K71">
+        <v>14973000</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -52629,8 +53044,17 @@
       <c r="H72">
         <v>5332000</v>
       </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I72">
+        <v>30125000</v>
+      </c>
+      <c r="J72">
+        <v>17000</v>
+      </c>
+      <c r="K72">
+        <v>14973000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -52653,8 +53077,17 @@
       <c r="H73">
         <v>7122000</v>
       </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I73">
+        <v>30125000</v>
+      </c>
+      <c r="J73">
+        <v>17000</v>
+      </c>
+      <c r="K73">
+        <v>14973000</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -52677,8 +53110,17 @@
       <c r="H74">
         <v>7122000</v>
       </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I74">
+        <v>31412000</v>
+      </c>
+      <c r="J74">
+        <v>17000</v>
+      </c>
+      <c r="K74">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -52702,7 +53144,7 @@
         <v>6982000</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -52726,7 +53168,7 @@
         <v>6982000</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -52750,7 +53192,7 @@
         <v>7122000</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -52774,7 +53216,7 @@
         <v>7122000</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -52798,7 +53240,7 @@
         <v>7122000</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80">
         <f t="shared" si="1"/>
         <v>77</v>

--- a/Post (na) Scriptie - Experiment resultaten.xlsx
+++ b/Post (na) Scriptie - Experiment resultaten.xlsx
@@ -8129,8 +8129,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="167394688"/>
-        <c:axId val="167683968"/>
+        <c:axId val="55375744"/>
+        <c:axId val="102629376"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10992,11 +10992,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="83892480"/>
-        <c:axId val="83890176"/>
+        <c:axId val="102646528"/>
+        <c:axId val="102631296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="167394688"/>
+        <c:axId val="55375744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11036,7 +11036,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167683968"/>
+        <c:crossAx val="102629376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11046,7 +11046,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167683968"/>
+        <c:axId val="102629376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11086,12 +11086,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167394688"/>
+        <c:crossAx val="55375744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83890176"/>
+        <c:axId val="102631296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11132,7 +11132,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83892480"/>
+        <c:crossAx val="102646528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -11153,7 +11153,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:catAx>
-        <c:axId val="83892480"/>
+        <c:axId val="102646528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11163,7 +11163,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83890176"/>
+        <c:crossAx val="102631296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11935,6 +11935,162 @@
                 <c:pt idx="71">
                   <c:v>0.17912069999999999</c:v>
                 </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.18798870000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.18798870000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.19243279999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.19243279999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.19243279999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.19498779999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.20552719999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.20552719999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.20552719999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.20552719999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.2065922</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.2065922</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.206845</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.206845</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.20736019999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.20736019999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.20736019999999999</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="General">
+                  <c:v>0.20736019999999999</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="General">
+                  <c:v>0.20736019999999999</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="General">
+                  <c:v>0.20736019999999999</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="General">
+                  <c:v>0.20736019999999999</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="General">
+                  <c:v>0.20736019999999999</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="General">
+                  <c:v>0.20736019999999999</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="General">
+                  <c:v>0.20736019999999999</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="General">
+                  <c:v>0.20736019999999999</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="General">
+                  <c:v>0.20736959999999999</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="General">
+                  <c:v>0.20736959999999999</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="General">
+                  <c:v>0.20736959999999999</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="General">
+                  <c:v>0.20736959999999999</c:v>
+                </c:pt>
+                <c:pt idx="101" formatCode="General">
+                  <c:v>0.20736959999999999</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="General">
+                  <c:v>0.20736959999999999</c:v>
+                </c:pt>
+                <c:pt idx="103" formatCode="General">
+                  <c:v>0.20736959999999999</c:v>
+                </c:pt>
+                <c:pt idx="104" formatCode="General">
+                  <c:v>0.20736959999999999</c:v>
+                </c:pt>
+                <c:pt idx="105" formatCode="General">
+                  <c:v>0.20736959999999999</c:v>
+                </c:pt>
+                <c:pt idx="106" formatCode="General">
+                  <c:v>0.20736959999999999</c:v>
+                </c:pt>
+                <c:pt idx="107" formatCode="General">
+                  <c:v>0.20736959999999999</c:v>
+                </c:pt>
+                <c:pt idx="108" formatCode="General">
+                  <c:v>0.20736959999999999</c:v>
+                </c:pt>
+                <c:pt idx="109" formatCode="General">
+                  <c:v>0.20736959999999999</c:v>
+                </c:pt>
+                <c:pt idx="110" formatCode="General">
+                  <c:v>0.20736959999999999</c:v>
+                </c:pt>
+                <c:pt idx="111" formatCode="General">
+                  <c:v>0.20736959999999999</c:v>
+                </c:pt>
+                <c:pt idx="112" formatCode="General">
+                  <c:v>0.20736959999999999</c:v>
+                </c:pt>
+                <c:pt idx="113" formatCode="General">
+                  <c:v>0.20736959999999999</c:v>
+                </c:pt>
+                <c:pt idx="114" formatCode="General">
+                  <c:v>0.20736959999999999</c:v>
+                </c:pt>
+                <c:pt idx="115" formatCode="General">
+                  <c:v>0.20736959999999999</c:v>
+                </c:pt>
+                <c:pt idx="116" formatCode="General">
+                  <c:v>0.20736959999999999</c:v>
+                </c:pt>
+                <c:pt idx="117" formatCode="General">
+                  <c:v>0.20736959999999999</c:v>
+                </c:pt>
+                <c:pt idx="118" formatCode="General">
+                  <c:v>0.20736959999999999</c:v>
+                </c:pt>
+                <c:pt idx="119" formatCode="General">
+                  <c:v>0.20736959999999999</c:v>
+                </c:pt>
+                <c:pt idx="120" formatCode="General">
+                  <c:v>0.20736959999999999</c:v>
+                </c:pt>
+                <c:pt idx="121" formatCode="General">
+                  <c:v>0.20736959999999999</c:v>
+                </c:pt>
+                <c:pt idx="122" formatCode="General">
+                  <c:v>0.20736959999999999</c:v>
+                </c:pt>
+                <c:pt idx="123" formatCode="General">
+                  <c:v>0.20736959999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12187,6 +12343,162 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>0.14690829999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.16111519999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.16436629999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.17195879999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.16672219999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.16772780000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.1646618</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.17588590000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.1715274</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.16174910000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.1558939</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.1557075</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.1555877</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.1544499</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.15529490000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.1562693</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.15654889999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.15548960000000001</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="General">
+                  <c:v>0.15695049999999999</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="General">
+                  <c:v>0.156968</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="General">
+                  <c:v>0.15554309999999999</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="General">
+                  <c:v>0.1596967</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="General">
+                  <c:v>0.15937879999999999</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="General">
+                  <c:v>0.15969249999999999</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="General">
+                  <c:v>0.16128919999999999</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="General">
+                  <c:v>0.16140779999999999</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="General">
+                  <c:v>0.1619749</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="General">
+                  <c:v>0.16249730000000001</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="General">
+                  <c:v>0.16219410000000001</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="General">
+                  <c:v>0.1630607</c:v>
+                </c:pt>
+                <c:pt idx="101" formatCode="General">
+                  <c:v>0.16334009999999999</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="General">
+                  <c:v>0.16353860000000001</c:v>
+                </c:pt>
+                <c:pt idx="103" formatCode="General">
+                  <c:v>0.16298599999999999</c:v>
+                </c:pt>
+                <c:pt idx="104" formatCode="General">
+                  <c:v>0.16331570000000001</c:v>
+                </c:pt>
+                <c:pt idx="105" formatCode="General">
+                  <c:v>0.1635181</c:v>
+                </c:pt>
+                <c:pt idx="106" formatCode="General">
+                  <c:v>0.1639601</c:v>
+                </c:pt>
+                <c:pt idx="107" formatCode="General">
+                  <c:v>0.16481109999999999</c:v>
+                </c:pt>
+                <c:pt idx="108" formatCode="General">
+                  <c:v>0.163878</c:v>
+                </c:pt>
+                <c:pt idx="109" formatCode="General">
+                  <c:v>0.1646572</c:v>
+                </c:pt>
+                <c:pt idx="110" formatCode="General">
+                  <c:v>0.16476260000000001</c:v>
+                </c:pt>
+                <c:pt idx="111" formatCode="General">
+                  <c:v>0.16439290000000001</c:v>
+                </c:pt>
+                <c:pt idx="112" formatCode="General">
+                  <c:v>0.16474240000000001</c:v>
+                </c:pt>
+                <c:pt idx="113" formatCode="General">
+                  <c:v>0.16109670000000001</c:v>
+                </c:pt>
+                <c:pt idx="114" formatCode="General">
+                  <c:v>0.16078580000000001</c:v>
+                </c:pt>
+                <c:pt idx="115" formatCode="General">
+                  <c:v>0.16227520000000001</c:v>
+                </c:pt>
+                <c:pt idx="116" formatCode="General">
+                  <c:v>0.1604342</c:v>
+                </c:pt>
+                <c:pt idx="117" formatCode="General">
+                  <c:v>0.1598967</c:v>
+                </c:pt>
+                <c:pt idx="118" formatCode="General">
+                  <c:v>0.16049550000000001</c:v>
+                </c:pt>
+                <c:pt idx="119" formatCode="General">
+                  <c:v>0.16119059999999999</c:v>
+                </c:pt>
+                <c:pt idx="120" formatCode="General">
+                  <c:v>0.158743</c:v>
+                </c:pt>
+                <c:pt idx="121" formatCode="General">
+                  <c:v>0.16130430000000001</c:v>
+                </c:pt>
+                <c:pt idx="122" formatCode="General">
+                  <c:v>0.1590017</c:v>
+                </c:pt>
+                <c:pt idx="123" formatCode="General">
+                  <c:v>0.16034399999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12269,8 +12581,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="83950592"/>
-        <c:axId val="100947072"/>
+        <c:axId val="102780928"/>
+        <c:axId val="102782848"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12534,6 +12846,162 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>50090000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>52570000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>52570000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>53814000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>53814000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>53814000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>54525000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>57480000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>57480000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>57480000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>57480000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>57778000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>57778000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>57849000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>57849000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>57994000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>57994000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>57994000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>57994000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>57994000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>57994000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>57994000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>57994000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>57994000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>57994000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>57994000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>57996000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>57996000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>57996000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>57996000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>57996000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>57996000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>57996000</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>57996000</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>57996000</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>57996000</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>57996000</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>57996000</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>57996000</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>57996000</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>57996000</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>57996000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>57996000</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>57996000</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>57996000</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>57996000</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>57996000</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>57996000</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>57996000</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>57996000</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>57996000</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>57996000</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>57996000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13087,11 +13555,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100955648"/>
-        <c:axId val="100948992"/>
+        <c:axId val="102791424"/>
+        <c:axId val="102789120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83950592"/>
+        <c:axId val="102780928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13131,7 +13599,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100947072"/>
+        <c:crossAx val="102782848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13141,7 +13609,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100947072"/>
+        <c:axId val="102782848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13181,12 +13649,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83950592"/>
+        <c:crossAx val="102780928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100948992"/>
+        <c:axId val="102789120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13227,7 +13695,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100955648"/>
+        <c:crossAx val="102791424"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -13238,7 +13706,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:catAx>
-        <c:axId val="100955648"/>
+        <c:axId val="102791424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13248,7 +13716,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100948992"/>
+        <c:crossAx val="102789120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -25219,8 +25687,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101179392"/>
-        <c:axId val="101181312"/>
+        <c:axId val="102859520"/>
+        <c:axId val="102861440"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -25281,11 +25749,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101845248"/>
-        <c:axId val="101843328"/>
+        <c:axId val="102874112"/>
+        <c:axId val="102872192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101179392"/>
+        <c:axId val="102859520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25325,7 +25793,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101181312"/>
+        <c:crossAx val="102861440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -25335,7 +25803,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101181312"/>
+        <c:axId val="102861440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25375,7 +25843,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101179392"/>
+        <c:crossAx val="102859520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -25401,7 +25869,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101843328"/>
+        <c:axId val="102872192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.29577009361005"/>
@@ -25444,14 +25912,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101845248"/>
+        <c:crossAx val="102874112"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
         <c:minorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="101845248"/>
+        <c:axId val="102874112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25460,7 +25928,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101843328"/>
+        <c:crossAx val="102872192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -26220,6 +26688,162 @@
                 <c:pt idx="71">
                   <c:v>31412000</c:v>
                 </c:pt>
+                <c:pt idx="72">
+                  <c:v>32051000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>32051000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>32676000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>32676000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>32676000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>31773000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>36735000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>36735000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>36735000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>36735000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>37365000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>37365000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>37652000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>37652000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>37652000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>37652000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>37652000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>37652000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>37652000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>37652000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>37652000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>37652000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>37652000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>37652000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>37652000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>37549000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>37549000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>37549000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>37549000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>37549000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>37549000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>37549000</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>37549000</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>37549000</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>37549000</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>37549000</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>37549000</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>37549000</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>37549000</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>37549000</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>37549000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>37549000</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>37549000</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>37549000</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>37549000</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>37549000</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>37549000</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>37549000</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>37549000</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>37549000</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>37549000</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>37549000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -26935,6 +27559,162 @@
                 <c:pt idx="71">
                   <c:v>17000</c:v>
                 </c:pt>
+                <c:pt idx="72">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>17000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -27648,6 +28428,162 @@
                   <c:v>14973000</c:v>
                 </c:pt>
                 <c:pt idx="71">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>14673000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>14673000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>14673000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>12484000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>14673000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>14673000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>14673000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>14673000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>14673000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>14673000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>14673000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>14673000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>15057000</c:v>
+                </c:pt>
+                <c:pt idx="123">
                   <c:v>15057000</c:v>
                 </c:pt>
               </c:numCache>
@@ -27761,8 +28697,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101904384"/>
-        <c:axId val="101906304"/>
+        <c:axId val="131412352"/>
+        <c:axId val="131414272"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -27823,11 +28759,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101918976"/>
-        <c:axId val="101917056"/>
+        <c:axId val="131422848"/>
+        <c:axId val="131420928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101904384"/>
+        <c:axId val="131412352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27867,7 +28803,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101906304"/>
+        <c:crossAx val="131414272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -27877,7 +28813,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101906304"/>
+        <c:axId val="131414272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27917,7 +28853,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101904384"/>
+        <c:crossAx val="131412352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -27943,7 +28879,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101917056"/>
+        <c:axId val="131420928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.2140781310540696"/>
@@ -27986,14 +28922,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101918976"/>
+        <c:crossAx val="131422848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
         <c:minorUnit val="0.125"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="101918976"/>
+        <c:axId val="131422848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28002,7 +28938,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101917056"/>
+        <c:crossAx val="131420928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -39960,8 +40896,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101978880"/>
-        <c:axId val="101980800"/>
+        <c:axId val="131597056"/>
+        <c:axId val="131598976"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -40022,11 +40958,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101989376"/>
-        <c:axId val="101987456"/>
+        <c:axId val="131619840"/>
+        <c:axId val="131617920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101978880"/>
+        <c:axId val="131597056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -40065,7 +41001,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101980800"/>
+        <c:crossAx val="131598976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -40075,7 +41011,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101980800"/>
+        <c:axId val="131598976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -40114,7 +41050,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101978880"/>
+        <c:crossAx val="131597056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -40139,7 +41075,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101987456"/>
+        <c:axId val="131617920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.55098482246641212"/>
@@ -40180,14 +41116,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101989376"/>
+        <c:crossAx val="131619840"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="101989376"/>
+        <c:axId val="131619840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -40196,7 +41132,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101987456"/>
+        <c:crossAx val="131617920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -42112,8 +43048,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102022144"/>
-        <c:axId val="102036608"/>
+        <c:axId val="131660032"/>
+        <c:axId val="133149056"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -42174,11 +43110,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102118912"/>
-        <c:axId val="102038912"/>
+        <c:axId val="133251840"/>
+        <c:axId val="133151360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102022144"/>
+        <c:axId val="131660032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -42217,7 +43153,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102036608"/>
+        <c:crossAx val="133149056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -42227,7 +43163,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102036608"/>
+        <c:axId val="133149056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -42266,7 +43202,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102022144"/>
+        <c:crossAx val="131660032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -42291,7 +43227,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102038912"/>
+        <c:axId val="133151360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.55098482246641212"/>
@@ -42332,14 +43268,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102118912"/>
+        <c:crossAx val="133251840"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="102118912"/>
+        <c:axId val="133251840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -42348,7 +43284,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102038912"/>
+        <c:crossAx val="133151360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -43150,7 +44086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J378"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -45529,8 +46465,15 @@
       <c r="G75">
         <v>79018000</v>
       </c>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
+      <c r="H75" s="5">
+        <v>0.18798870000000001</v>
+      </c>
+      <c r="I75" s="5">
+        <v>0.16111519999999999</v>
+      </c>
+      <c r="J75">
+        <v>52570000</v>
+      </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
@@ -45554,8 +46497,15 @@
       <c r="G76">
         <v>79018000</v>
       </c>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
+      <c r="H76" s="5">
+        <v>0.18798870000000001</v>
+      </c>
+      <c r="I76" s="5">
+        <v>0.16436629999999999</v>
+      </c>
+      <c r="J76">
+        <v>52570000</v>
+      </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
@@ -45579,8 +46529,15 @@
       <c r="G77">
         <v>81600000</v>
       </c>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
+      <c r="H77" s="5">
+        <v>0.19243279999999999</v>
+      </c>
+      <c r="I77" s="5">
+        <v>0.17195879999999999</v>
+      </c>
+      <c r="J77">
+        <v>53814000</v>
+      </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
@@ -45604,8 +46561,15 @@
       <c r="G78">
         <v>81626000</v>
       </c>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
+      <c r="H78" s="5">
+        <v>0.19243279999999999</v>
+      </c>
+      <c r="I78" s="5">
+        <v>0.16672219999999999</v>
+      </c>
+      <c r="J78">
+        <v>53814000</v>
+      </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
@@ -45629,8 +46593,15 @@
       <c r="G79">
         <v>81750000</v>
       </c>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
+      <c r="H79" s="5">
+        <v>0.19243279999999999</v>
+      </c>
+      <c r="I79" s="5">
+        <v>0.16772780000000001</v>
+      </c>
+      <c r="J79">
+        <v>53814000</v>
+      </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
@@ -45654,10 +46625,17 @@
       <c r="G80">
         <v>81750000</v>
       </c>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H80" s="5">
+        <v>0.19498779999999999</v>
+      </c>
+      <c r="I80" s="5">
+        <v>0.1646618</v>
+      </c>
+      <c r="J80">
+        <v>54525000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>95907961</v>
       </c>
@@ -45679,10 +46657,17 @@
       <c r="G81">
         <v>82718000</v>
       </c>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H81" s="5">
+        <v>0.20552719999999999</v>
+      </c>
+      <c r="I81" s="5">
+        <v>0.17588590000000001</v>
+      </c>
+      <c r="J81">
+        <v>57480000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>95907961</v>
       </c>
@@ -45704,10 +46689,17 @@
       <c r="G82">
         <v>82718000</v>
       </c>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H82" s="5">
+        <v>0.20552719999999999</v>
+      </c>
+      <c r="I82" s="5">
+        <v>0.1715274</v>
+      </c>
+      <c r="J82">
+        <v>57480000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>95907961</v>
       </c>
@@ -45729,10 +46721,17 @@
       <c r="G83">
         <v>83428000</v>
       </c>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H83" s="5">
+        <v>0.20552719999999999</v>
+      </c>
+      <c r="I83" s="5">
+        <v>0.16174910000000001</v>
+      </c>
+      <c r="J83">
+        <v>57480000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>95907961</v>
       </c>
@@ -45754,10 +46753,17 @@
       <c r="G84">
         <v>83428000</v>
       </c>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H84" s="5">
+        <v>0.20552719999999999</v>
+      </c>
+      <c r="I84" s="5">
+        <v>0.1558939</v>
+      </c>
+      <c r="J84">
+        <v>57480000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>95907961</v>
       </c>
@@ -45779,10 +46785,17 @@
       <c r="G85">
         <v>84334000</v>
       </c>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H85" s="5">
+        <v>0.2065922</v>
+      </c>
+      <c r="I85" s="5">
+        <v>0.1557075</v>
+      </c>
+      <c r="J85">
+        <v>57778000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>95907961</v>
       </c>
@@ -45804,10 +46817,17 @@
       <c r="G86">
         <v>84334000</v>
       </c>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H86" s="5">
+        <v>0.2065922</v>
+      </c>
+      <c r="I86" s="5">
+        <v>0.1555877</v>
+      </c>
+      <c r="J86">
+        <v>57778000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>95907961</v>
       </c>
@@ -45829,10 +46849,17 @@
       <c r="G87">
         <v>84359000</v>
       </c>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H87" s="5">
+        <v>0.206845</v>
+      </c>
+      <c r="I87" s="5">
+        <v>0.1544499</v>
+      </c>
+      <c r="J87">
+        <v>57849000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>95907961</v>
       </c>
@@ -45854,10 +46881,17 @@
       <c r="G88">
         <v>84359000</v>
       </c>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H88" s="5">
+        <v>0.206845</v>
+      </c>
+      <c r="I88" s="5">
+        <v>0.15529490000000001</v>
+      </c>
+      <c r="J88">
+        <v>57849000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>95907961</v>
       </c>
@@ -45879,10 +46913,17 @@
       <c r="G89">
         <v>84632000</v>
       </c>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H89" s="5">
+        <v>0.20736019999999999</v>
+      </c>
+      <c r="I89" s="5">
+        <v>0.1562693</v>
+      </c>
+      <c r="J89">
+        <v>57994000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>95907961</v>
       </c>
@@ -45904,10 +46945,17 @@
       <c r="G90">
         <v>84767000</v>
       </c>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H90" s="5">
+        <v>0.20736019999999999</v>
+      </c>
+      <c r="I90" s="5">
+        <v>0.15654889999999999</v>
+      </c>
+      <c r="J90">
+        <v>57994000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>95907961</v>
       </c>
@@ -45929,10 +46977,17 @@
       <c r="G91">
         <v>84767000</v>
       </c>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H91" s="5">
+        <v>0.20736019999999999</v>
+      </c>
+      <c r="I91" s="5">
+        <v>0.15548960000000001</v>
+      </c>
+      <c r="J91">
+        <v>57994000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>95907961</v>
       </c>
@@ -45954,8 +47009,17 @@
       <c r="G92">
         <v>84767000</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H92">
+        <v>0.20736019999999999</v>
+      </c>
+      <c r="I92">
+        <v>0.15695049999999999</v>
+      </c>
+      <c r="J92">
+        <v>57994000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>95907961</v>
       </c>
@@ -45977,8 +47041,17 @@
       <c r="G93">
         <v>84855000</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H93">
+        <v>0.20736019999999999</v>
+      </c>
+      <c r="I93">
+        <v>0.156968</v>
+      </c>
+      <c r="J93">
+        <v>57994000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>95907961</v>
       </c>
@@ -46000,8 +47073,17 @@
       <c r="G94">
         <v>84855000</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H94">
+        <v>0.20736019999999999</v>
+      </c>
+      <c r="I94">
+        <v>0.15554309999999999</v>
+      </c>
+      <c r="J94">
+        <v>57994000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>95907961</v>
       </c>
@@ -46023,8 +47105,17 @@
       <c r="G95">
         <v>87618000</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H95">
+        <v>0.20736019999999999</v>
+      </c>
+      <c r="I95">
+        <v>0.1596967</v>
+      </c>
+      <c r="J95">
+        <v>57994000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95907961</v>
       </c>
@@ -46046,8 +47137,17 @@
       <c r="G96">
         <v>88022000</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96">
+        <v>0.20736019999999999</v>
+      </c>
+      <c r="I96">
+        <v>0.15937879999999999</v>
+      </c>
+      <c r="J96">
+        <v>57994000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95907961</v>
       </c>
@@ -46069,8 +47169,17 @@
       <c r="G97">
         <v>88048000</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97">
+        <v>0.20736019999999999</v>
+      </c>
+      <c r="I97">
+        <v>0.15969249999999999</v>
+      </c>
+      <c r="J97">
+        <v>57994000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>95907961</v>
       </c>
@@ -46092,8 +47201,17 @@
       <c r="G98">
         <v>88048000</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98">
+        <v>0.20736019999999999</v>
+      </c>
+      <c r="I98">
+        <v>0.16128919999999999</v>
+      </c>
+      <c r="J98">
+        <v>57994000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>95907961</v>
       </c>
@@ -46115,8 +47233,17 @@
       <c r="G99">
         <v>88164000</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99">
+        <v>0.20736019999999999</v>
+      </c>
+      <c r="I99">
+        <v>0.16140779999999999</v>
+      </c>
+      <c r="J99">
+        <v>57994000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>95907961</v>
       </c>
@@ -46138,8 +47265,17 @@
       <c r="G100">
         <v>88164000</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100">
+        <v>0.20736959999999999</v>
+      </c>
+      <c r="I100">
+        <v>0.1619749</v>
+      </c>
+      <c r="J100">
+        <v>57996000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>95907961</v>
       </c>
@@ -46161,8 +47297,17 @@
       <c r="G101">
         <v>88164000</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101">
+        <v>0.20736959999999999</v>
+      </c>
+      <c r="I101">
+        <v>0.16249730000000001</v>
+      </c>
+      <c r="J101">
+        <v>57996000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>95907961</v>
       </c>
@@ -46184,8 +47329,17 @@
       <c r="G102">
         <v>88164000</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102">
+        <v>0.20736959999999999</v>
+      </c>
+      <c r="I102">
+        <v>0.16219410000000001</v>
+      </c>
+      <c r="J102">
+        <v>57996000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>95907961</v>
       </c>
@@ -46207,8 +47361,17 @@
       <c r="G103">
         <v>88164000</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103">
+        <v>0.20736959999999999</v>
+      </c>
+      <c r="I103">
+        <v>0.1630607</v>
+      </c>
+      <c r="J103">
+        <v>57996000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>95907961</v>
       </c>
@@ -46230,8 +47393,17 @@
       <c r="G104">
         <v>88164000</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104">
+        <v>0.20736959999999999</v>
+      </c>
+      <c r="I104">
+        <v>0.16334009999999999</v>
+      </c>
+      <c r="J104">
+        <v>57996000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>95907961</v>
       </c>
@@ -46253,8 +47425,17 @@
       <c r="G105">
         <v>88164000</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105">
+        <v>0.20736959999999999</v>
+      </c>
+      <c r="I105">
+        <v>0.16353860000000001</v>
+      </c>
+      <c r="J105">
+        <v>57996000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>95907961</v>
       </c>
@@ -46276,8 +47457,17 @@
       <c r="G106">
         <v>88164000</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106">
+        <v>0.20736959999999999</v>
+      </c>
+      <c r="I106">
+        <v>0.16298599999999999</v>
+      </c>
+      <c r="J106">
+        <v>57996000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>95907961</v>
       </c>
@@ -46299,8 +47489,17 @@
       <c r="G107">
         <v>88164000</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107">
+        <v>0.20736959999999999</v>
+      </c>
+      <c r="I107">
+        <v>0.16331570000000001</v>
+      </c>
+      <c r="J107">
+        <v>57996000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>95907961</v>
       </c>
@@ -46322,8 +47521,17 @@
       <c r="G108">
         <v>88164000</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108">
+        <v>0.20736959999999999</v>
+      </c>
+      <c r="I108">
+        <v>0.1635181</v>
+      </c>
+      <c r="J108">
+        <v>57996000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>95907961</v>
       </c>
@@ -46345,8 +47553,17 @@
       <c r="G109">
         <v>88164000</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109">
+        <v>0.20736959999999999</v>
+      </c>
+      <c r="I109">
+        <v>0.1639601</v>
+      </c>
+      <c r="J109">
+        <v>57996000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>95907961</v>
       </c>
@@ -46368,8 +47585,17 @@
       <c r="G110">
         <v>88164000</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110">
+        <v>0.20736959999999999</v>
+      </c>
+      <c r="I110">
+        <v>0.16481109999999999</v>
+      </c>
+      <c r="J110">
+        <v>57996000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>95907961</v>
       </c>
@@ -46391,8 +47617,17 @@
       <c r="G111">
         <v>88176000</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111">
+        <v>0.20736959999999999</v>
+      </c>
+      <c r="I111">
+        <v>0.163878</v>
+      </c>
+      <c r="J111">
+        <v>57996000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>95907961</v>
       </c>
@@ -46414,8 +47649,17 @@
       <c r="G112">
         <v>88176000</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112">
+        <v>0.20736959999999999</v>
+      </c>
+      <c r="I112">
+        <v>0.1646572</v>
+      </c>
+      <c r="J112">
+        <v>57996000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>95907961</v>
       </c>
@@ -46437,8 +47681,17 @@
       <c r="G113">
         <v>88176000</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113">
+        <v>0.20736959999999999</v>
+      </c>
+      <c r="I113">
+        <v>0.16476260000000001</v>
+      </c>
+      <c r="J113">
+        <v>57996000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>95907961</v>
       </c>
@@ -46460,8 +47713,17 @@
       <c r="G114">
         <v>88176000</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114">
+        <v>0.20736959999999999</v>
+      </c>
+      <c r="I114">
+        <v>0.16439290000000001</v>
+      </c>
+      <c r="J114">
+        <v>57996000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>95907961</v>
       </c>
@@ -46483,8 +47745,17 @@
       <c r="G115">
         <v>88176000</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115">
+        <v>0.20736959999999999</v>
+      </c>
+      <c r="I115">
+        <v>0.16474240000000001</v>
+      </c>
+      <c r="J115">
+        <v>57996000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>95907961</v>
       </c>
@@ -46506,8 +47777,17 @@
       <c r="G116">
         <v>88176000</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116">
+        <v>0.20736959999999999</v>
+      </c>
+      <c r="I116">
+        <v>0.16109670000000001</v>
+      </c>
+      <c r="J116">
+        <v>57996000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>95907961</v>
       </c>
@@ -46529,8 +47809,17 @@
       <c r="G117">
         <v>88176000</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117">
+        <v>0.20736959999999999</v>
+      </c>
+      <c r="I117">
+        <v>0.16078580000000001</v>
+      </c>
+      <c r="J117">
+        <v>57996000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>95907961</v>
       </c>
@@ -46552,8 +47841,17 @@
       <c r="G118">
         <v>88176000</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118">
+        <v>0.20736959999999999</v>
+      </c>
+      <c r="I118">
+        <v>0.16227520000000001</v>
+      </c>
+      <c r="J118">
+        <v>57996000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>95907961</v>
       </c>
@@ -46575,8 +47873,17 @@
       <c r="G119">
         <v>88176000</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119">
+        <v>0.20736959999999999</v>
+      </c>
+      <c r="I119">
+        <v>0.1604342</v>
+      </c>
+      <c r="J119">
+        <v>57996000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>95907961</v>
       </c>
@@ -46598,8 +47905,17 @@
       <c r="G120">
         <v>88176000</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120">
+        <v>0.20736959999999999</v>
+      </c>
+      <c r="I120">
+        <v>0.1598967</v>
+      </c>
+      <c r="J120">
+        <v>57996000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>95907961</v>
       </c>
@@ -46621,8 +47937,17 @@
       <c r="G121">
         <v>88176000</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H121">
+        <v>0.20736959999999999</v>
+      </c>
+      <c r="I121">
+        <v>0.16049550000000001</v>
+      </c>
+      <c r="J121">
+        <v>57996000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>95907961</v>
       </c>
@@ -46644,8 +47969,17 @@
       <c r="G122">
         <v>88176000</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122">
+        <v>0.20736959999999999</v>
+      </c>
+      <c r="I122">
+        <v>0.16119059999999999</v>
+      </c>
+      <c r="J122">
+        <v>57996000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>95907961</v>
       </c>
@@ -46667,8 +48001,17 @@
       <c r="G123">
         <v>88176000</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H123">
+        <v>0.20736959999999999</v>
+      </c>
+      <c r="I123">
+        <v>0.158743</v>
+      </c>
+      <c r="J123">
+        <v>57996000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>95907961</v>
       </c>
@@ -46690,8 +48033,17 @@
       <c r="G124">
         <v>88176000</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124">
+        <v>0.20736959999999999</v>
+      </c>
+      <c r="I124">
+        <v>0.16130430000000001</v>
+      </c>
+      <c r="J124">
+        <v>57996000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>95907961</v>
       </c>
@@ -46713,8 +48065,17 @@
       <c r="G125">
         <v>88176000</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H125">
+        <v>0.20736959999999999</v>
+      </c>
+      <c r="I125">
+        <v>0.1590017</v>
+      </c>
+      <c r="J125">
+        <v>57996000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>95907961</v>
       </c>
@@ -46736,8 +48097,17 @@
       <c r="G126">
         <v>88176000</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H126">
+        <v>0.20736959999999999</v>
+      </c>
+      <c r="I126">
+        <v>0.16034399999999999</v>
+      </c>
+      <c r="J126">
+        <v>57996000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>95907961</v>
       </c>
@@ -46760,7 +48130,7 @@
         <v>88176000</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>95907961</v>
       </c>
@@ -53143,6 +54513,15 @@
       <c r="H75">
         <v>6982000</v>
       </c>
+      <c r="I75">
+        <v>32051000</v>
+      </c>
+      <c r="J75">
+        <v>17000</v>
+      </c>
+      <c r="K75">
+        <v>15057000</v>
+      </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76">
@@ -53167,6 +54546,15 @@
       <c r="H76">
         <v>6982000</v>
       </c>
+      <c r="I76">
+        <v>32051000</v>
+      </c>
+      <c r="J76">
+        <v>17000</v>
+      </c>
+      <c r="K76">
+        <v>15057000</v>
+      </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77">
@@ -53191,6 +54579,15 @@
       <c r="H77">
         <v>7122000</v>
       </c>
+      <c r="I77">
+        <v>32676000</v>
+      </c>
+      <c r="J77">
+        <v>17000</v>
+      </c>
+      <c r="K77">
+        <v>14673000</v>
+      </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78">
@@ -53215,6 +54612,15 @@
       <c r="H78">
         <v>7122000</v>
       </c>
+      <c r="I78">
+        <v>32676000</v>
+      </c>
+      <c r="J78">
+        <v>17000</v>
+      </c>
+      <c r="K78">
+        <v>14673000</v>
+      </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79">
@@ -53239,6 +54645,15 @@
       <c r="H79">
         <v>7122000</v>
       </c>
+      <c r="I79">
+        <v>32676000</v>
+      </c>
+      <c r="J79">
+        <v>17000</v>
+      </c>
+      <c r="K79">
+        <v>14673000</v>
+      </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80">
@@ -53263,8 +54678,17 @@
       <c r="H80">
         <v>7122000</v>
       </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <v>31773000</v>
+      </c>
+      <c r="J80">
+        <v>17000</v>
+      </c>
+      <c r="K80">
+        <v>12484000</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -53287,8 +54711,17 @@
       <c r="H81">
         <v>8467000</v>
       </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <v>36735000</v>
+      </c>
+      <c r="J81">
+        <v>17000</v>
+      </c>
+      <c r="K81">
+        <v>14673000</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -53311,8 +54744,17 @@
       <c r="H82">
         <v>8467000</v>
       </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <v>36735000</v>
+      </c>
+      <c r="J82">
+        <v>17000</v>
+      </c>
+      <c r="K82">
+        <v>14673000</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -53335,8 +54777,17 @@
       <c r="H83">
         <v>11222000</v>
       </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <v>36735000</v>
+      </c>
+      <c r="J83">
+        <v>17000</v>
+      </c>
+      <c r="K83">
+        <v>14673000</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -53359,8 +54810,17 @@
       <c r="H84">
         <v>11222000</v>
       </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <v>36735000</v>
+      </c>
+      <c r="J84">
+        <v>17000</v>
+      </c>
+      <c r="K84">
+        <v>14673000</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -53383,8 +54843,17 @@
       <c r="H85">
         <v>12905000</v>
       </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <v>37365000</v>
+      </c>
+      <c r="J85">
+        <v>17000</v>
+      </c>
+      <c r="K85">
+        <v>14673000</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B86">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -53407,8 +54876,17 @@
       <c r="H86">
         <v>12905000</v>
       </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <v>37365000</v>
+      </c>
+      <c r="J86">
+        <v>17000</v>
+      </c>
+      <c r="K86">
+        <v>14673000</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -53431,8 +54909,17 @@
       <c r="H87">
         <v>15122000</v>
       </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <v>37652000</v>
+      </c>
+      <c r="J87">
+        <v>17000</v>
+      </c>
+      <c r="K87">
+        <v>14673000</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B88">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -53455,8 +54942,17 @@
       <c r="H88">
         <v>15122000</v>
       </c>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <v>37652000</v>
+      </c>
+      <c r="J88">
+        <v>17000</v>
+      </c>
+      <c r="K88">
+        <v>14673000</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B89">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -53479,8 +54975,17 @@
       <c r="H89">
         <v>15122000</v>
       </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <v>37652000</v>
+      </c>
+      <c r="J89">
+        <v>17000</v>
+      </c>
+      <c r="K89">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B90">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -53503,8 +55008,17 @@
       <c r="H90">
         <v>15122000</v>
       </c>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <v>37652000</v>
+      </c>
+      <c r="J90">
+        <v>17000</v>
+      </c>
+      <c r="K90">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B91">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -53527,8 +55041,17 @@
       <c r="H91">
         <v>15122000</v>
       </c>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <v>37652000</v>
+      </c>
+      <c r="J91">
+        <v>17000</v>
+      </c>
+      <c r="K91">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B92">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -53551,8 +55074,17 @@
       <c r="H92">
         <v>15122000</v>
       </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <v>37652000</v>
+      </c>
+      <c r="J92">
+        <v>17000</v>
+      </c>
+      <c r="K92">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B93">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -53575,8 +55107,17 @@
       <c r="H93">
         <v>15122000</v>
       </c>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <v>37652000</v>
+      </c>
+      <c r="J93">
+        <v>17000</v>
+      </c>
+      <c r="K93">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -53599,8 +55140,17 @@
       <c r="H94">
         <v>15122000</v>
       </c>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <v>37652000</v>
+      </c>
+      <c r="J94">
+        <v>17000</v>
+      </c>
+      <c r="K94">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B95">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -53623,8 +55173,17 @@
       <c r="H95">
         <v>15122000</v>
       </c>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <v>37652000</v>
+      </c>
+      <c r="J95">
+        <v>17000</v>
+      </c>
+      <c r="K95">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B96">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -53647,8 +55206,17 @@
       <c r="H96">
         <v>15112000</v>
       </c>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I96">
+        <v>37652000</v>
+      </c>
+      <c r="J96">
+        <v>17000</v>
+      </c>
+      <c r="K96">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B97">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -53671,8 +55239,17 @@
       <c r="H97">
         <v>15103000</v>
       </c>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I97">
+        <v>37652000</v>
+      </c>
+      <c r="J97">
+        <v>17000</v>
+      </c>
+      <c r="K97">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B98">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -53695,8 +55272,17 @@
       <c r="H98">
         <v>15103000</v>
       </c>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I98">
+        <v>37652000</v>
+      </c>
+      <c r="J98">
+        <v>17000</v>
+      </c>
+      <c r="K98">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B99">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -53719,8 +55305,17 @@
       <c r="H99">
         <v>15103000</v>
       </c>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <v>37652000</v>
+      </c>
+      <c r="J99">
+        <v>17000</v>
+      </c>
+      <c r="K99">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B100">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -53743,8 +55338,17 @@
       <c r="H100">
         <v>15103000</v>
       </c>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <v>37549000</v>
+      </c>
+      <c r="J100">
+        <v>17000</v>
+      </c>
+      <c r="K100">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B101">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -53767,8 +55371,17 @@
       <c r="H101">
         <v>15103000</v>
       </c>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I101">
+        <v>37549000</v>
+      </c>
+      <c r="J101">
+        <v>17000</v>
+      </c>
+      <c r="K101">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B102">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -53791,8 +55404,17 @@
       <c r="H102">
         <v>15103000</v>
       </c>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I102">
+        <v>37549000</v>
+      </c>
+      <c r="J102">
+        <v>17000</v>
+      </c>
+      <c r="K102">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -53815,8 +55437,17 @@
       <c r="H103">
         <v>15103000</v>
       </c>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I103">
+        <v>37549000</v>
+      </c>
+      <c r="J103">
+        <v>17000</v>
+      </c>
+      <c r="K103">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B104">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -53839,8 +55470,17 @@
       <c r="H104">
         <v>15103000</v>
       </c>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I104">
+        <v>37549000</v>
+      </c>
+      <c r="J104">
+        <v>17000</v>
+      </c>
+      <c r="K104">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B105">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -53863,8 +55503,17 @@
       <c r="H105">
         <v>15103000</v>
       </c>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I105">
+        <v>37549000</v>
+      </c>
+      <c r="J105">
+        <v>17000</v>
+      </c>
+      <c r="K105">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B106">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -53887,8 +55536,17 @@
       <c r="H106">
         <v>15103000</v>
       </c>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I106">
+        <v>37549000</v>
+      </c>
+      <c r="J106">
+        <v>17000</v>
+      </c>
+      <c r="K106">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B107">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -53911,8 +55569,17 @@
       <c r="H107">
         <v>15103000</v>
       </c>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I107">
+        <v>37549000</v>
+      </c>
+      <c r="J107">
+        <v>17000</v>
+      </c>
+      <c r="K107">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B108">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -53935,8 +55602,17 @@
       <c r="H108">
         <v>15103000</v>
       </c>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I108">
+        <v>37549000</v>
+      </c>
+      <c r="J108">
+        <v>17000</v>
+      </c>
+      <c r="K108">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B109">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -53959,8 +55635,17 @@
       <c r="H109">
         <v>15103000</v>
       </c>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I109">
+        <v>37549000</v>
+      </c>
+      <c r="J109">
+        <v>17000</v>
+      </c>
+      <c r="K109">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B110">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -53983,8 +55668,17 @@
       <c r="H110">
         <v>15103000</v>
       </c>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I110">
+        <v>37549000</v>
+      </c>
+      <c r="J110">
+        <v>17000</v>
+      </c>
+      <c r="K110">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B111">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -54007,8 +55701,17 @@
       <c r="H111">
         <v>15103000</v>
       </c>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I111">
+        <v>37549000</v>
+      </c>
+      <c r="J111">
+        <v>17000</v>
+      </c>
+      <c r="K111">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B112">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -54031,8 +55734,17 @@
       <c r="H112">
         <v>15103000</v>
       </c>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I112">
+        <v>37549000</v>
+      </c>
+      <c r="J112">
+        <v>17000</v>
+      </c>
+      <c r="K112">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B113">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -54055,8 +55767,17 @@
       <c r="H113">
         <v>15103000</v>
       </c>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I113">
+        <v>37549000</v>
+      </c>
+      <c r="J113">
+        <v>17000</v>
+      </c>
+      <c r="K113">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B114">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -54079,8 +55800,17 @@
       <c r="H114">
         <v>15103000</v>
       </c>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I114">
+        <v>37549000</v>
+      </c>
+      <c r="J114">
+        <v>17000</v>
+      </c>
+      <c r="K114">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B115">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -54103,8 +55833,17 @@
       <c r="H115">
         <v>15103000</v>
       </c>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I115">
+        <v>37549000</v>
+      </c>
+      <c r="J115">
+        <v>17000</v>
+      </c>
+      <c r="K115">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B116">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -54127,8 +55866,17 @@
       <c r="H116">
         <v>15103000</v>
       </c>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I116">
+        <v>37549000</v>
+      </c>
+      <c r="J116">
+        <v>17000</v>
+      </c>
+      <c r="K116">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B117">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -54151,8 +55899,17 @@
       <c r="H117">
         <v>14777000</v>
       </c>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I117">
+        <v>37549000</v>
+      </c>
+      <c r="J117">
+        <v>17000</v>
+      </c>
+      <c r="K117">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B118">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -54175,8 +55932,17 @@
       <c r="H118">
         <v>14777000</v>
       </c>
-    </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I118">
+        <v>37549000</v>
+      </c>
+      <c r="J118">
+        <v>17000</v>
+      </c>
+      <c r="K118">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B119">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -54199,8 +55965,17 @@
       <c r="H119">
         <v>14513000</v>
       </c>
-    </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I119">
+        <v>37549000</v>
+      </c>
+      <c r="J119">
+        <v>17000</v>
+      </c>
+      <c r="K119">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B120">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -54223,8 +55998,17 @@
       <c r="H120">
         <v>14513000</v>
       </c>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I120">
+        <v>37549000</v>
+      </c>
+      <c r="J120">
+        <v>17000</v>
+      </c>
+      <c r="K120">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B121">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -54247,8 +56031,17 @@
       <c r="H121">
         <v>14513000</v>
       </c>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I121">
+        <v>37549000</v>
+      </c>
+      <c r="J121">
+        <v>17000</v>
+      </c>
+      <c r="K121">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B122">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -54271,8 +56064,17 @@
       <c r="H122">
         <v>14513000</v>
       </c>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I122">
+        <v>37549000</v>
+      </c>
+      <c r="J122">
+        <v>17000</v>
+      </c>
+      <c r="K122">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B123">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -54295,8 +56097,17 @@
       <c r="H123">
         <v>14513000</v>
       </c>
-    </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I123">
+        <v>37549000</v>
+      </c>
+      <c r="J123">
+        <v>17000</v>
+      </c>
+      <c r="K123">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B124">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -54319,8 +56130,17 @@
       <c r="H124">
         <v>14513000</v>
       </c>
-    </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I124">
+        <v>37549000</v>
+      </c>
+      <c r="J124">
+        <v>17000</v>
+      </c>
+      <c r="K124">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B125">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -54343,8 +56163,17 @@
       <c r="H125">
         <v>14513000</v>
       </c>
-    </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I125">
+        <v>37549000</v>
+      </c>
+      <c r="J125">
+        <v>17000</v>
+      </c>
+      <c r="K125">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B126">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -54367,8 +56196,17 @@
       <c r="H126">
         <v>14513000</v>
       </c>
-    </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I126">
+        <v>37549000</v>
+      </c>
+      <c r="J126">
+        <v>17000</v>
+      </c>
+      <c r="K126">
+        <v>15057000</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B127">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -54392,7 +56230,7 @@
         <v>14513000</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B128">
         <f t="shared" si="1"/>
         <v>125</v>

--- a/Post (na) Scriptie - Experiment resultaten.xlsx
+++ b/Post (na) Scriptie - Experiment resultaten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-150" yWindow="-240" windowWidth="29100" windowHeight="13215" activeTab="1"/>
+    <workbookView xWindow="-150" yWindow="-240" windowWidth="29100" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Fitnesses &amp; Outputs" sheetId="1" r:id="rId1"/>
@@ -6448,6 +6448,21 @@
                 <c:pt idx="163">
                   <c:v>0.31574980000000002</c:v>
                 </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.30645440000000002</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.30816690000000002</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.30816789999999999</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.30816789999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8114,6 +8129,21 @@
                 <c:pt idx="163" formatCode="General">
                   <c:v>0.29449189999999997</c:v>
                 </c:pt>
+                <c:pt idx="164" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165" formatCode="General">
+                  <c:v>0.28598210000000002</c:v>
+                </c:pt>
+                <c:pt idx="166" formatCode="General">
+                  <c:v>0.2858598</c:v>
+                </c:pt>
+                <c:pt idx="167" formatCode="General">
+                  <c:v>0.28717949999999998</c:v>
+                </c:pt>
+                <c:pt idx="168" formatCode="General">
+                  <c:v>0.28727839999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8129,8 +8159,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="55375744"/>
-        <c:axId val="102629376"/>
+        <c:axId val="93795456"/>
+        <c:axId val="93797376"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9811,6 +9841,21 @@
                 <c:pt idx="163">
                   <c:v>88214000</c:v>
                 </c:pt>
+                <c:pt idx="164">
+                  <c:v>85612000</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>85618000</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>86098000</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>86096000</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>86096000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10992,11 +11037,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102646528"/>
-        <c:axId val="102631296"/>
+        <c:axId val="93818240"/>
+        <c:axId val="93815936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="55375744"/>
+        <c:axId val="93795456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11036,7 +11081,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102629376"/>
+        <c:crossAx val="93797376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11046,7 +11091,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102629376"/>
+        <c:axId val="93797376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11086,12 +11131,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55375744"/>
+        <c:crossAx val="93795456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102631296"/>
+        <c:axId val="93815936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11132,7 +11177,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102646528"/>
+        <c:crossAx val="93818240"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -11153,7 +11198,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:catAx>
-        <c:axId val="102646528"/>
+        <c:axId val="93818240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11163,7 +11208,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102631296"/>
+        <c:crossAx val="93815936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12581,8 +12626,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102780928"/>
-        <c:axId val="102782848"/>
+        <c:axId val="94395008"/>
+        <c:axId val="94421760"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -13555,11 +13600,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102791424"/>
-        <c:axId val="102789120"/>
+        <c:axId val="94426240"/>
+        <c:axId val="94423680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102780928"/>
+        <c:axId val="94395008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13599,7 +13644,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102782848"/>
+        <c:crossAx val="94421760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13609,7 +13654,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102782848"/>
+        <c:axId val="94421760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13649,12 +13694,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102780928"/>
+        <c:crossAx val="94395008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102789120"/>
+        <c:axId val="94423680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13695,7 +13740,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102791424"/>
+        <c:crossAx val="94426240"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -13706,7 +13751,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:catAx>
-        <c:axId val="102791424"/>
+        <c:axId val="94426240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13716,7 +13761,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102789120"/>
+        <c:crossAx val="94423680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -22344,6 +22389,21 @@
                 <c:pt idx="163">
                   <c:v>13257000</c:v>
                 </c:pt>
+                <c:pt idx="164">
+                  <c:v>17076000</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>14605000</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>14579000</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>14579000</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>14579000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -24008,6 +24068,21 @@
                 <c:pt idx="163">
                   <c:v>17000</c:v>
                 </c:pt>
+                <c:pt idx="164">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>20000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -25672,6 +25747,21 @@
                 <c:pt idx="163">
                   <c:v>13470000</c:v>
                 </c:pt>
+                <c:pt idx="164">
+                  <c:v>12725000</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>12725000</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>13451000</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>12610000</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>12610000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -25687,8 +25777,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102859520"/>
-        <c:axId val="102861440"/>
+        <c:axId val="102958208"/>
+        <c:axId val="102960128"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -25749,11 +25839,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102874112"/>
-        <c:axId val="102872192"/>
+        <c:axId val="102972800"/>
+        <c:axId val="102970880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102859520"/>
+        <c:axId val="102958208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25793,7 +25883,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102861440"/>
+        <c:crossAx val="102960128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -25803,7 +25893,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102861440"/>
+        <c:axId val="102960128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25843,7 +25933,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102859520"/>
+        <c:crossAx val="102958208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -25869,7 +25959,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102872192"/>
+        <c:axId val="102970880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.29577009361005"/>
@@ -25912,14 +26002,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102874112"/>
+        <c:crossAx val="102972800"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
         <c:minorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="102874112"/>
+        <c:axId val="102972800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25928,7 +26018,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102872192"/>
+        <c:crossAx val="102970880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -28697,8 +28787,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131412352"/>
-        <c:axId val="131414272"/>
+        <c:axId val="103232640"/>
+        <c:axId val="103234560"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -28759,11 +28849,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131422848"/>
-        <c:axId val="131420928"/>
+        <c:axId val="103247232"/>
+        <c:axId val="103245312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="131412352"/>
+        <c:axId val="103232640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28803,7 +28893,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131414272"/>
+        <c:crossAx val="103234560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -28813,7 +28903,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131414272"/>
+        <c:axId val="103234560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28853,7 +28943,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131412352"/>
+        <c:crossAx val="103232640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -28879,7 +28969,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="131420928"/>
+        <c:axId val="103245312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.2140781310540696"/>
@@ -28922,14 +29012,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131422848"/>
+        <c:crossAx val="103247232"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
         <c:minorUnit val="0.125"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="131422848"/>
+        <c:axId val="103247232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28938,7 +29028,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131420928"/>
+        <c:crossAx val="103245312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -40896,8 +40986,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131597056"/>
-        <c:axId val="131598976"/>
+        <c:axId val="103895424"/>
+        <c:axId val="103897344"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -40958,11 +41048,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131619840"/>
-        <c:axId val="131617920"/>
+        <c:axId val="103905920"/>
+        <c:axId val="103904000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="131597056"/>
+        <c:axId val="103895424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -41001,7 +41091,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131598976"/>
+        <c:crossAx val="103897344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -41011,7 +41101,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131598976"/>
+        <c:axId val="103897344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -41050,7 +41140,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131597056"/>
+        <c:crossAx val="103895424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -41075,7 +41165,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="131617920"/>
+        <c:axId val="103904000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.55098482246641212"/>
@@ -41116,14 +41206,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131619840"/>
+        <c:crossAx val="103905920"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="131619840"/>
+        <c:axId val="103905920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -41132,7 +41222,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131617920"/>
+        <c:crossAx val="103904000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -43048,8 +43138,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131660032"/>
-        <c:axId val="133149056"/>
+        <c:axId val="107886080"/>
+        <c:axId val="107888000"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -43110,11 +43200,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="133251840"/>
-        <c:axId val="133151360"/>
+        <c:axId val="107917312"/>
+        <c:axId val="107906944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="131660032"/>
+        <c:axId val="107886080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -43153,7 +43243,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133149056"/>
+        <c:crossAx val="107888000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -43163,7 +43253,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133149056"/>
+        <c:axId val="107888000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -43202,7 +43292,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131660032"/>
+        <c:crossAx val="107886080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -43227,7 +43317,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="133151360"/>
+        <c:axId val="107906944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.55098482246641212"/>
@@ -43268,14 +43358,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133251840"/>
+        <c:crossAx val="107917312"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="133251840"/>
+        <c:axId val="107917312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -43284,7 +43374,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133151360"/>
+        <c:crossAx val="107906944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -43317,16 +43407,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>352423</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1828799</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>1209675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -43348,15 +43438,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -44086,7 +44176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J378"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -49040,6 +49130,15 @@
       <c r="D167">
         <v>0.12023349999999999</v>
       </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>85612000</v>
+      </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
@@ -49054,6 +49153,15 @@
       <c r="D168">
         <v>0.1195799</v>
       </c>
+      <c r="E168">
+        <v>0.30645440000000002</v>
+      </c>
+      <c r="F168">
+        <v>0.28598210000000002</v>
+      </c>
+      <c r="G168">
+        <v>85618000</v>
+      </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
@@ -49068,6 +49176,15 @@
       <c r="D169">
         <v>0.11881949999999999</v>
       </c>
+      <c r="E169">
+        <v>0.30816690000000002</v>
+      </c>
+      <c r="F169">
+        <v>0.2858598</v>
+      </c>
+      <c r="G169">
+        <v>86098000</v>
+      </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
@@ -49082,6 +49199,15 @@
       <c r="D170">
         <v>0.1144863</v>
       </c>
+      <c r="E170">
+        <v>0.30816789999999999</v>
+      </c>
+      <c r="F170">
+        <v>0.28717949999999998</v>
+      </c>
+      <c r="G170">
+        <v>86096000</v>
+      </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
@@ -49095,6 +49221,15 @@
       </c>
       <c r="D171">
         <v>0.11241230000000001</v>
+      </c>
+      <c r="E171">
+        <v>0.30816789999999999</v>
+      </c>
+      <c r="F171">
+        <v>0.28727839999999999</v>
+      </c>
+      <c r="G171">
+        <v>86096000</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -52005,8 +52140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="F167" sqref="F167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57180,6 +57315,15 @@
       <c r="E167">
         <v>1993000</v>
       </c>
+      <c r="F167">
+        <v>17076000</v>
+      </c>
+      <c r="G167">
+        <v>20000</v>
+      </c>
+      <c r="H167">
+        <v>12725000</v>
+      </c>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168">
@@ -57195,6 +57339,15 @@
       <c r="E168">
         <v>1993000</v>
       </c>
+      <c r="F168">
+        <v>14605000</v>
+      </c>
+      <c r="G168">
+        <v>20000</v>
+      </c>
+      <c r="H168">
+        <v>12725000</v>
+      </c>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169">
@@ -57210,6 +57363,15 @@
       <c r="E169">
         <v>1993000</v>
       </c>
+      <c r="F169">
+        <v>14579000</v>
+      </c>
+      <c r="G169">
+        <v>20000</v>
+      </c>
+      <c r="H169">
+        <v>13451000</v>
+      </c>
     </row>
     <row r="170" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B170">
@@ -57225,6 +57387,15 @@
       <c r="E170">
         <v>1993000</v>
       </c>
+      <c r="F170">
+        <v>14579000</v>
+      </c>
+      <c r="G170">
+        <v>20000</v>
+      </c>
+      <c r="H170">
+        <v>12610000</v>
+      </c>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B171">
@@ -57239,6 +57410,15 @@
       </c>
       <c r="E171">
         <v>1993000</v>
+      </c>
+      <c r="F171">
+        <v>14579000</v>
+      </c>
+      <c r="G171">
+        <v>20000</v>
+      </c>
+      <c r="H171">
+        <v>12610000</v>
       </c>
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.25">

--- a/Post (na) Scriptie - Experiment resultaten.xlsx
+++ b/Post (na) Scriptie - Experiment resultaten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-150" yWindow="-240" windowWidth="29100" windowHeight="13215"/>
+    <workbookView xWindow="-150" yWindow="-180" windowWidth="29100" windowHeight="13155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fitnesses &amp; Outputs" sheetId="1" r:id="rId1"/>
@@ -6463,6 +6463,27 @@
                 <c:pt idx="168">
                   <c:v>0.30816789999999999</c:v>
                 </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.30918970000000001</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.30921490000000001</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.30936809999999998</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.30941570000000002</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.30941570000000002</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.30945329999999999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.3096698</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8144,6 +8165,27 @@
                 <c:pt idx="168" formatCode="General">
                   <c:v>0.28727839999999999</c:v>
                 </c:pt>
+                <c:pt idx="169" formatCode="General">
+                  <c:v>0.28697470000000003</c:v>
+                </c:pt>
+                <c:pt idx="170" formatCode="General">
+                  <c:v>0.28700550000000002</c:v>
+                </c:pt>
+                <c:pt idx="171" formatCode="General">
+                  <c:v>0.28901120000000002</c:v>
+                </c:pt>
+                <c:pt idx="172" formatCode="General">
+                  <c:v>0.28950819999999999</c:v>
+                </c:pt>
+                <c:pt idx="173" formatCode="General">
+                  <c:v>0.28944049999999999</c:v>
+                </c:pt>
+                <c:pt idx="174" formatCode="General">
+                  <c:v>0.28972229999999999</c:v>
+                </c:pt>
+                <c:pt idx="175" formatCode="General">
+                  <c:v>0.28970360000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8159,8 +8201,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93795456"/>
-        <c:axId val="93797376"/>
+        <c:axId val="130067072"/>
+        <c:axId val="131991424"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9856,6 +9898,27 @@
                 <c:pt idx="168">
                   <c:v>86096000</c:v>
                 </c:pt>
+                <c:pt idx="169">
+                  <c:v>86383000</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>86390000</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>86434000</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>86450000</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>86450000</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>86460000</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>86521000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11037,11 +11100,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93818240"/>
-        <c:axId val="93815936"/>
+        <c:axId val="50968832"/>
+        <c:axId val="50966528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93795456"/>
+        <c:axId val="130067072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11081,7 +11144,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93797376"/>
+        <c:crossAx val="131991424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11091,7 +11154,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93797376"/>
+        <c:axId val="131991424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11131,12 +11194,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93795456"/>
+        <c:crossAx val="130067072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93815936"/>
+        <c:axId val="50966528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11177,7 +11240,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93818240"/>
+        <c:crossAx val="50968832"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -11198,7 +11261,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:catAx>
-        <c:axId val="93818240"/>
+        <c:axId val="50968832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11208,7 +11271,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93815936"/>
+        <c:crossAx val="50966528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12626,8 +12689,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94395008"/>
-        <c:axId val="94421760"/>
+        <c:axId val="55956992"/>
+        <c:axId val="55958912"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -13600,11 +13663,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94426240"/>
-        <c:axId val="94423680"/>
+        <c:axId val="133353472"/>
+        <c:axId val="132441600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94395008"/>
+        <c:axId val="55956992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13644,7 +13707,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94421760"/>
+        <c:crossAx val="55958912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13654,7 +13717,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94421760"/>
+        <c:axId val="55958912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13694,12 +13757,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94395008"/>
+        <c:crossAx val="55956992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94423680"/>
+        <c:axId val="132441600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13740,7 +13803,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94426240"/>
+        <c:crossAx val="133353472"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -13751,7 +13814,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:catAx>
-        <c:axId val="94426240"/>
+        <c:axId val="133353472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13761,7 +13824,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94423680"/>
+        <c:crossAx val="132441600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -22404,6 +22467,27 @@
                 <c:pt idx="168">
                   <c:v>14579000</c:v>
                 </c:pt>
+                <c:pt idx="169">
+                  <c:v>15257000</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>15250000</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>15267000</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>15267000</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>15267000</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>15268000</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>15278000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -24083,6 +24167,27 @@
                 <c:pt idx="168">
                   <c:v>20000</c:v>
                 </c:pt>
+                <c:pt idx="169">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>19000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -25762,6 +25867,27 @@
                 <c:pt idx="168">
                   <c:v>12610000</c:v>
                 </c:pt>
+                <c:pt idx="169">
+                  <c:v>12610000</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>12591000</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>13661000</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>15084000</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>15084000</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>15084000</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>15084000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -25777,8 +25903,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102958208"/>
-        <c:axId val="102960128"/>
+        <c:axId val="130599168"/>
+        <c:axId val="130605440"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -25839,11 +25965,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102972800"/>
-        <c:axId val="102970880"/>
+        <c:axId val="130609920"/>
+        <c:axId val="130607744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102958208"/>
+        <c:axId val="130599168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25883,7 +26009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102960128"/>
+        <c:crossAx val="130605440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -25893,7 +26019,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102960128"/>
+        <c:axId val="130605440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25933,7 +26059,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102958208"/>
+        <c:crossAx val="130599168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -25959,7 +26085,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102970880"/>
+        <c:axId val="130607744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.29577009361005"/>
@@ -26002,14 +26128,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102972800"/>
+        <c:crossAx val="130609920"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
         <c:minorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="102972800"/>
+        <c:axId val="130609920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26018,7 +26144,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102970880"/>
+        <c:crossAx val="130607744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -28787,8 +28913,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103232640"/>
-        <c:axId val="103234560"/>
+        <c:axId val="135059712"/>
+        <c:axId val="135065984"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -28849,11 +28975,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103247232"/>
-        <c:axId val="103245312"/>
+        <c:axId val="135729920"/>
+        <c:axId val="135068288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103232640"/>
+        <c:axId val="135059712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28893,7 +29019,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103234560"/>
+        <c:crossAx val="135065984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -28903,7 +29029,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103234560"/>
+        <c:axId val="135065984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28943,7 +29069,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103232640"/>
+        <c:crossAx val="135059712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -28969,7 +29095,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103245312"/>
+        <c:axId val="135068288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.2140781310540696"/>
@@ -29012,14 +29138,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103247232"/>
+        <c:crossAx val="135729920"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
         <c:minorUnit val="0.125"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="103247232"/>
+        <c:axId val="135729920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29028,7 +29154,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103245312"/>
+        <c:crossAx val="135068288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -40986,8 +41112,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103895424"/>
-        <c:axId val="103897344"/>
+        <c:axId val="135785088"/>
+        <c:axId val="138220288"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -41048,11 +41174,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103905920"/>
-        <c:axId val="103904000"/>
+        <c:axId val="138232960"/>
+        <c:axId val="138222592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103895424"/>
+        <c:axId val="135785088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -41091,7 +41217,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103897344"/>
+        <c:crossAx val="138220288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -41101,7 +41227,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103897344"/>
+        <c:axId val="138220288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -41140,7 +41266,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103895424"/>
+        <c:crossAx val="135785088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -41165,7 +41291,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103904000"/>
+        <c:axId val="138222592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.55098482246641212"/>
@@ -41206,14 +41332,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103905920"/>
+        <c:crossAx val="138232960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="103905920"/>
+        <c:axId val="138232960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -41222,7 +41348,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103904000"/>
+        <c:crossAx val="138222592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -43138,8 +43264,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107886080"/>
-        <c:axId val="107888000"/>
+        <c:axId val="138273152"/>
+        <c:axId val="138275072"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -43200,11 +43326,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107917312"/>
-        <c:axId val="107906944"/>
+        <c:axId val="138549888"/>
+        <c:axId val="138547968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107886080"/>
+        <c:axId val="138273152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -43243,7 +43369,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107888000"/>
+        <c:crossAx val="138275072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -43253,7 +43379,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107888000"/>
+        <c:axId val="138275072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -43292,7 +43418,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107886080"/>
+        <c:crossAx val="138273152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -43317,7 +43443,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107906944"/>
+        <c:axId val="138547968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.55098482246641212"/>
@@ -43358,14 +43484,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107917312"/>
+        <c:crossAx val="138549888"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="107917312"/>
+        <c:axId val="138549888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -43374,7 +43500,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107906944"/>
+        <c:crossAx val="138547968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -44176,7 +44302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J378"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -49245,6 +49371,15 @@
       <c r="D172">
         <v>0.1100463</v>
       </c>
+      <c r="E172">
+        <v>0.30918970000000001</v>
+      </c>
+      <c r="F172">
+        <v>0.28697470000000003</v>
+      </c>
+      <c r="G172">
+        <v>86383000</v>
+      </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
@@ -49259,6 +49394,15 @@
       <c r="D173">
         <v>0.10971019999999999</v>
       </c>
+      <c r="E173">
+        <v>0.30921490000000001</v>
+      </c>
+      <c r="F173">
+        <v>0.28700550000000002</v>
+      </c>
+      <c r="G173">
+        <v>86390000</v>
+      </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
@@ -49273,6 +49417,15 @@
       <c r="D174">
         <v>0.1097022</v>
       </c>
+      <c r="E174">
+        <v>0.30936809999999998</v>
+      </c>
+      <c r="F174">
+        <v>0.28901120000000002</v>
+      </c>
+      <c r="G174">
+        <v>86434000</v>
+      </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
@@ -49287,6 +49440,15 @@
       <c r="D175">
         <v>0.1142039</v>
       </c>
+      <c r="E175">
+        <v>0.30941570000000002</v>
+      </c>
+      <c r="F175">
+        <v>0.28950819999999999</v>
+      </c>
+      <c r="G175">
+        <v>86450000</v>
+      </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
@@ -49301,8 +49463,17 @@
       <c r="D176">
         <v>0.112221</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176">
+        <v>0.30941570000000002</v>
+      </c>
+      <c r="F176">
+        <v>0.28944049999999999</v>
+      </c>
+      <c r="G176">
+        <v>86450000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>95907961</v>
       </c>
@@ -49315,8 +49486,17 @@
       <c r="D177">
         <v>0.1189726</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177">
+        <v>0.30945329999999999</v>
+      </c>
+      <c r="F177">
+        <v>0.28972229999999999</v>
+      </c>
+      <c r="G177">
+        <v>86460000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>95907961</v>
       </c>
@@ -49329,8 +49509,17 @@
       <c r="D178">
         <v>0.1153246</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178">
+        <v>0.3096698</v>
+      </c>
+      <c r="F178">
+        <v>0.28970360000000001</v>
+      </c>
+      <c r="G178">
+        <v>86521000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>95907961</v>
       </c>
@@ -49344,7 +49533,7 @@
         <v>0.1123546</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>95907961</v>
       </c>
@@ -49358,7 +49547,7 @@
         <v>0.118585</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>95907961</v>
       </c>
@@ -49372,7 +49561,7 @@
         <v>0.1182774</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>95907961</v>
       </c>
@@ -49386,7 +49575,7 @@
         <v>0.11718140000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>95907961</v>
       </c>
@@ -49400,7 +49589,7 @@
         <v>0.1162305</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>95907961</v>
       </c>
@@ -49414,7 +49603,7 @@
         <v>0.1168574</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>95907961</v>
       </c>
@@ -49428,7 +49617,7 @@
         <v>0.1167011</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>95907961</v>
       </c>
@@ -49442,7 +49631,7 @@
         <v>0.1155632</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>95907961</v>
       </c>
@@ -49456,7 +49645,7 @@
         <v>0.11807189999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>95907961</v>
       </c>
@@ -49470,7 +49659,7 @@
         <v>0.1185968</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>95907961</v>
       </c>
@@ -49484,7 +49673,7 @@
         <v>0.116587</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>95907961</v>
       </c>
@@ -49498,7 +49687,7 @@
         <v>0.1148462</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>95907961</v>
       </c>
@@ -49512,7 +49701,7 @@
         <v>0.11860420000000001</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>95907961</v>
       </c>
@@ -52140,8 +52329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q378"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="F167" sqref="F167"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57435,6 +57624,15 @@
       <c r="E172">
         <v>1993000</v>
       </c>
+      <c r="F172">
+        <v>15257000</v>
+      </c>
+      <c r="G172">
+        <v>20000</v>
+      </c>
+      <c r="H172">
+        <v>12610000</v>
+      </c>
     </row>
     <row r="173" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B173">
@@ -57450,6 +57648,15 @@
       <c r="E173">
         <v>1993000</v>
       </c>
+      <c r="F173">
+        <v>15250000</v>
+      </c>
+      <c r="G173">
+        <v>19000</v>
+      </c>
+      <c r="H173">
+        <v>12591000</v>
+      </c>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174">
@@ -57465,6 +57672,15 @@
       <c r="E174">
         <v>1993000</v>
       </c>
+      <c r="F174">
+        <v>15267000</v>
+      </c>
+      <c r="G174">
+        <v>19000</v>
+      </c>
+      <c r="H174">
+        <v>13661000</v>
+      </c>
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B175">
@@ -57480,6 +57696,15 @@
       <c r="E175">
         <v>1993000</v>
       </c>
+      <c r="F175">
+        <v>15267000</v>
+      </c>
+      <c r="G175">
+        <v>19000</v>
+      </c>
+      <c r="H175">
+        <v>15084000</v>
+      </c>
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B176">
@@ -57495,8 +57720,17 @@
       <c r="E176">
         <v>1993000</v>
       </c>
-    </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F176">
+        <v>15267000</v>
+      </c>
+      <c r="G176">
+        <v>19000</v>
+      </c>
+      <c r="H176">
+        <v>15084000</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B177">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -57510,8 +57744,17 @@
       <c r="E177">
         <v>1993000</v>
       </c>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F177">
+        <v>15268000</v>
+      </c>
+      <c r="G177">
+        <v>19000</v>
+      </c>
+      <c r="H177">
+        <v>15084000</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B178">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -57525,8 +57768,17 @@
       <c r="E178">
         <v>1993000</v>
       </c>
-    </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F178">
+        <v>15278000</v>
+      </c>
+      <c r="G178">
+        <v>19000</v>
+      </c>
+      <c r="H178">
+        <v>15084000</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B179">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -57541,7 +57793,7 @@
         <v>1993000</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B180">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -57556,7 +57808,7 @@
         <v>1993000</v>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B181">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -57571,7 +57823,7 @@
         <v>1993000</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B182">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -57586,7 +57838,7 @@
         <v>1993000</v>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B183">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -57601,7 +57853,7 @@
         <v>1993000</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B184">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -57616,7 +57868,7 @@
         <v>1993000</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B185">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -57631,7 +57883,7 @@
         <v>1993000</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B186">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -57646,7 +57898,7 @@
         <v>1993000</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B187">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -57661,7 +57913,7 @@
         <v>1993000</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B188">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -57676,7 +57928,7 @@
         <v>1993000</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B189">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -57691,7 +57943,7 @@
         <v>1993000</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B190">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -57706,7 +57958,7 @@
         <v>1993000</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B191">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -57721,7 +57973,7 @@
         <v>1993000</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B192">
         <f t="shared" si="2"/>
         <v>189</v>
